--- a/files/BTCUSDT_2020.xlsx
+++ b/files/BTCUSDT_2020.xlsx
@@ -350,13 +350,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:Q246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,11 +919,11 @@
       </c>
       <c r="I2" s="9">
         <f>IF(P$1,H2*P2*P$3,H2*P$3)</f>
-        <v>15.763722999999999</v>
+        <v>0.15763722999999999</v>
       </c>
       <c r="J2" s="10">
         <f>P2</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K2" s="11">
         <f>IF(MAX(J$1:J2)=J2,0,1-J2/MAX(J$1:J2))</f>
@@ -932,16 +932,16 @@
       <c r="L2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="27">
         <f>SUM(I:I)</f>
-        <v>1896.5312494262935</v>
-      </c>
-      <c r="N2" s="27"/>
+        <v>18.965312494262918</v>
+      </c>
+      <c r="N2" s="28"/>
       <c r="O2" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="24">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>19</v>
@@ -974,11 +974,11 @@
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I17" si="0">IF(P$1,H3*J2*P$3,H3*P$2*P$3)</f>
-        <v>-3.837364</v>
+        <v>-3.8373640000000001E-2</v>
       </c>
       <c r="J3" s="10">
         <f>I3+J2</f>
-        <v>96.162636000000006</v>
+        <v>0.96162636000000001</v>
       </c>
       <c r="K3" s="11">
         <f>IF(MAX(J$1:J3)=J3,0,1-J3/MAX(J$1:J3))</f>
@@ -989,11 +989,11 @@
       </c>
       <c r="M3" s="13">
         <f>SUMIF(I:I,M1)</f>
-        <v>3810.4757927573914</v>
+        <v>38.10475792757385</v>
       </c>
       <c r="N3" s="13">
         <f>SUMIF(I:I,N1)</f>
-        <v>-1913.9445433310977</v>
+        <v>-19.139445433310954</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>-3.0986409268171204</v>
+        <v>-3.0986409268171203E-2</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J17" si="1">I4+J3</f>
-        <v>93.06399507318288</v>
+        <v>0.93063995073182881</v>
       </c>
       <c r="K4" s="11">
         <f>IF(MAX(J$1:J4)=J4,0,1-J4/MAX(J$1:J4))</f>
@@ -1084,26 +1084,26 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>-3.7823152635238553</v>
+        <v>-3.7823152635238548E-2</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="1"/>
-        <v>89.281679809659025</v>
+        <v>0.89281679809659031</v>
       </c>
       <c r="K5" s="11">
         <f>IF(MAX(J$1:J5)=J5,0,1-J5/MAX(J$1:J5))</f>
-        <v>0.1071832019034098</v>
+        <v>0.10718320190340969</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M5" s="13">
         <f>AVERAGEIF(I:I,M1)</f>
-        <v>33.134572110933838</v>
+        <v>0.3313457211093378</v>
       </c>
       <c r="N5" s="13">
         <f>AVERAGEIF(I:I,N1)</f>
-        <v>-14.722650333316137</v>
+        <v>-0.14722650333316117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" si="0"/>
-        <v>5.732535600042719</v>
+        <v>5.7325356000427201E-2</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>95.014215409701748</v>
+        <v>0.95014215409701752</v>
       </c>
       <c r="K6" s="11">
         <f>IF(MAX(J$1:J6)=J6,0,1-J6/MAX(J$1:J6))</f>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" si="0"/>
-        <v>2.7521703618515718</v>
+        <v>2.7521703618515716E-2</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="1"/>
-        <v>97.766385771553317</v>
+        <v>0.97766385771553321</v>
       </c>
       <c r="K7" s="11">
         <f>IF(MAX(J$1:J7)=J7,0,1-J7/MAX(J$1:J7))</f>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="M7" s="17">
         <f>M3/M4</f>
-        <v>33.134572110933838</v>
+        <v>0.3313457211093378</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>27</v>
@@ -1220,22 +1220,22 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" si="0"/>
-        <v>-1.5391469655039989</v>
+        <v>-1.5391469655039989E-2</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>96.227238806049314</v>
+        <v>0.9622723880604932</v>
       </c>
       <c r="K8" s="11">
         <f>IF(MAX(J$1:J8)=J8,0,1-J8/MAX(J$1:J8))</f>
-        <v>3.7727611939506911E-2</v>
+        <v>3.77276119395068E-2</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="17">
         <f>N3/N4</f>
-        <v>-14.722650333316137</v>
+        <v>-0.14722650333316117</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>29</v>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>-2.8107947587075359</v>
+        <v>-2.8107947587075362E-2</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="1"/>
-        <v>93.416444047341784</v>
+        <v>0.93416444047341785</v>
       </c>
       <c r="K9" s="11">
         <f>IF(MAX(J$1:J9)=J9,0,1-J9/MAX(J$1:J9))</f>
@@ -1316,11 +1316,11 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>-3.8280330566385787</v>
+        <v>-3.8280330566385787E-2</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>89.58841099070321</v>
+        <v>0.89588410990703204</v>
       </c>
       <c r="K10" s="11">
         <f>IF(MAX(J$1:J10)=J10,0,1-J10/MAX(J$1:J10))</f>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="M10" s="17">
         <f>M5/N5*-1</f>
-        <v>2.2505847358171001</v>
+        <v>2.2505847358170992</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>32</v>
@@ -1364,11 +1364,11 @@
       </c>
       <c r="I11" s="9">
         <f t="shared" si="0"/>
-        <v>59.316285343019871</v>
+        <v>0.5931628534301987</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>148.90469633372308</v>
+        <v>1.4890469633372307</v>
       </c>
       <c r="K11" s="11">
         <f>IF(MAX(J$1:J11)=J11,0,1-J11/MAX(J$1:J11))</f>
@@ -1412,11 +1412,11 @@
       </c>
       <c r="I12" s="9">
         <f t="shared" si="0"/>
-        <v>7.6862936514868911</v>
+        <v>7.6862936514868918E-2</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="1"/>
-        <v>156.59098998520997</v>
+        <v>1.5659098998520997</v>
       </c>
       <c r="K12" s="11">
         <f>IF(MAX(J$1:J12)=J12,0,1-J12/MAX(J$1:J12))</f>
@@ -1460,11 +1460,11 @@
       </c>
       <c r="I13" s="9">
         <f t="shared" si="0"/>
-        <v>-6.8429088191111873</v>
+        <v>-6.8429088191111875E-2</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="1"/>
-        <v>149.74808116609879</v>
+        <v>1.4974808116609879</v>
       </c>
       <c r="K13" s="11">
         <f>IF(MAX(J$1:J13)=J13,0,1-J13/MAX(J$1:J13))</f>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="M13" s="3">
         <f>(M7*M11)+(M8*M12)</f>
-        <v>7.7409438752093624</v>
+        <v>7.7409438752093454E-2</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>38</v>
@@ -1508,22 +1508,22 @@
       </c>
       <c r="I14" s="9">
         <f t="shared" si="0"/>
-        <v>-1.7636610208953518</v>
+        <v>-1.7636610208953518E-2</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="1"/>
-        <v>147.98442014520344</v>
+        <v>1.4798442014520343</v>
       </c>
       <c r="K14" s="11">
         <f>IF(MAX(J$1:J14)=J14,0,1-J14/MAX(J$1:J14))</f>
-        <v>5.4962101209139913E-2</v>
+        <v>5.4962101209140024E-2</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="19">
         <f>1+M9*M10</f>
-        <v>2.9909018816843576</v>
+        <v>2.9909018816843567</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>40</v>
@@ -1556,22 +1556,22 @@
       </c>
       <c r="I15" s="9">
         <f t="shared" si="0"/>
-        <v>-11.875811870109038</v>
+        <v>-0.11875811870109036</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>136.10860827509441</v>
+        <v>1.3610860827509439</v>
       </c>
       <c r="K15" s="11">
         <f>IF(MAX(J$1:J15)=J15,0,1-J15/MAX(J$1:J15))</f>
-        <v>0.1308017895030239</v>
+        <v>0.13080178950302401</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M15" s="21">
         <f>MAX(K:K)</f>
-        <v>0.29228590563307333</v>
+        <v>0.29228590563307344</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>42</v>
@@ -1604,11 +1604,11 @@
       </c>
       <c r="I16" s="9">
         <f t="shared" si="0"/>
-        <v>23.155494676919513</v>
+        <v>0.23155494676919511</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="1"/>
-        <v>159.26410295201393</v>
+        <v>1.592641029520139</v>
       </c>
       <c r="K16" s="11">
         <f>IF(MAX(J$1:J16)=J16,0,1-J16/MAX(J$1:J16))</f>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="M16" s="10">
         <f>M17/M15</f>
-        <v>64.886168401398734</v>
+        <v>64.886168401398649</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>44</v>
@@ -1652,22 +1652,22 @@
       </c>
       <c r="I17" s="9">
         <f t="shared" si="0"/>
-        <v>-1.3878640238675284</v>
+        <v>-1.387864023867528E-2</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="1"/>
-        <v>157.87623892814639</v>
+        <v>1.5787623892814637</v>
       </c>
       <c r="K17" s="11">
         <f>IF(MAX(J$1:J17)=J17,0,1-J17/MAX(J$1:J17))</f>
-        <v>8.714230000000045E-3</v>
+        <v>8.714229999999934E-3</v>
       </c>
       <c r="L17" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="26">
         <f>M2/P2</f>
-        <v>18.965312494262935</v>
+        <v>18.965312494262918</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>45</v>
@@ -1700,11 +1700,11 @@
       </c>
       <c r="I18" s="9">
         <f t="shared" ref="I18:I81" si="2">IF(P$1,H18*J17*P$3,H18*P$2*P$3)</f>
-        <v>-6.4584753839049096</v>
+        <v>-6.4584753839049089E-2</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" ref="J18:J81" si="3">I18+J17</f>
-        <v>151.4177635442415</v>
+        <v>1.5141776354424146</v>
       </c>
       <c r="K18" s="11">
         <f>IF(MAX(J$1:J18)=J18,0,1-J18/MAX(J$1:J18))</f>
@@ -1738,15 +1738,15 @@
       </c>
       <c r="I19" s="9">
         <f t="shared" si="2"/>
-        <v>-8.1274211387636637</v>
+        <v>-8.1274211387636616E-2</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="3"/>
-        <v>143.29034240547784</v>
+        <v>1.432903424054778</v>
       </c>
       <c r="K19" s="11">
         <f>IF(MAX(J$1:J19)=J19,0,1-J19/MAX(J$1:J19))</f>
-        <v>0.10029730648939117</v>
+        <v>0.10029730648939128</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1776,15 +1776,15 @@
       </c>
       <c r="I20" s="9">
         <f t="shared" si="2"/>
-        <v>-4.9947775000811214</v>
+        <v>-4.9947775000811191E-2</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="3"/>
-        <v>138.29556490539673</v>
+        <v>1.3829556490539667</v>
       </c>
       <c r="K20" s="11">
         <f>IF(MAX(J$1:J20)=J20,0,1-J20/MAX(J$1:J20))</f>
-        <v>0.13165890905708355</v>
+        <v>0.13165890905708377</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1814,15 +1814,15 @@
       </c>
       <c r="I21" s="9">
         <f t="shared" si="2"/>
-        <v>-5.9106086166691547</v>
+        <v>-5.9106086166691524E-2</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="3"/>
-        <v>132.38495628872758</v>
+        <v>1.3238495628872753</v>
       </c>
       <c r="K21" s="11">
         <f>IF(MAX(J$1:J21)=J21,0,1-J21/MAX(J$1:J21))</f>
-        <v>0.16877090420924923</v>
+        <v>0.16877090420924934</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1852,15 +1852,15 @@
       </c>
       <c r="I22" s="9">
         <f t="shared" si="2"/>
-        <v>12.419428580464837</v>
+        <v>0.12419428580464832</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="3"/>
-        <v>144.8043848691924</v>
+        <v>1.4480438486919236</v>
       </c>
       <c r="K22" s="11">
         <f>IF(MAX(J$1:J22)=J22,0,1-J22/MAX(J$1:J22))</f>
-        <v>9.0790817358122555E-2</v>
+        <v>9.0790817358122666E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1890,15 +1890,15 @@
       </c>
       <c r="I23" s="9">
         <f t="shared" si="2"/>
-        <v>0.20557733715494375</v>
+        <v>2.0557733715494369E-3</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="3"/>
-        <v>145.00996220634735</v>
+        <v>1.450099622063473</v>
       </c>
       <c r="K23" s="11">
         <f>IF(MAX(J$1:J23)=J23,0,1-J23/MAX(J$1:J23))</f>
-        <v>8.9500022173617633E-2</v>
+        <v>8.9500022173617855E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1928,15 +1928,15 @@
       </c>
       <c r="I24" s="9">
         <f t="shared" si="2"/>
-        <v>-4.4148152484756462</v>
+        <v>-4.4148152484756446E-2</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="3"/>
-        <v>140.59514695787172</v>
+        <v>1.4059514695787165</v>
       </c>
       <c r="K24" s="11">
         <f>IF(MAX(J$1:J24)=J24,0,1-J24/MAX(J$1:J24))</f>
-        <v>0.11722011205354377</v>
+        <v>0.1172201120535441</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1966,15 +1966,15 @@
       </c>
       <c r="I25" s="9">
         <f t="shared" si="2"/>
-        <v>4.219240676885156</v>
+        <v>4.219240676885154E-2</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="3"/>
-        <v>144.81438763475688</v>
+        <v>1.448143876347568</v>
       </c>
       <c r="K25" s="11">
         <f>IF(MAX(J$1:J25)=J25,0,1-J25/MAX(J$1:J25))</f>
-        <v>9.0728011205454928E-2</v>
+        <v>9.0728011205455261E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2004,15 +2004,15 @@
       </c>
       <c r="I26" s="9">
         <f t="shared" si="2"/>
-        <v>8.6670744853218871</v>
+        <v>8.6670744853218823E-2</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="3"/>
-        <v>153.48146212007876</v>
+        <v>1.5348146212007869</v>
       </c>
       <c r="K26" s="11">
         <f>IF(MAX(J$1:J26)=J26,0,1-J26/MAX(J$1:J26))</f>
-        <v>3.6308500941216293E-2</v>
+        <v>3.6308500941216515E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2042,15 +2042,15 @@
       </c>
       <c r="I27" s="9">
         <f t="shared" si="2"/>
-        <v>-9.2115030513192515</v>
+        <v>-9.2115030513192475E-2</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="3"/>
-        <v>144.2699590687595</v>
+        <v>1.4426995906875946</v>
       </c>
       <c r="K27" s="11">
         <f>IF(MAX(J$1:J27)=J27,0,1-J27/MAX(J$1:J27))</f>
-        <v>9.4146412187887329E-2</v>
+        <v>9.414641218788744E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2080,15 +2080,15 @@
       </c>
       <c r="I28" s="9">
         <f t="shared" si="2"/>
-        <v>-2.0755570785377966</v>
+        <v>-2.0755570785377962E-2</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="3"/>
-        <v>142.19440199022171</v>
+        <v>1.4219440199022166</v>
       </c>
       <c r="K28" s="11">
         <f>IF(MAX(J$1:J28)=J28,0,1-J28/MAX(J$1:J28))</f>
-        <v>0.10717858353137677</v>
+        <v>0.10717858353137688</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2118,11 +2118,11 @@
       </c>
       <c r="I29" s="9">
         <f t="shared" si="2"/>
-        <v>-3.4019854262318354</v>
+        <v>-3.4019854262318343E-2</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="3"/>
-        <v>138.79241656398986</v>
+        <v>1.3879241656398984</v>
       </c>
       <c r="K29" s="11">
         <f>IF(MAX(J$1:J29)=J29,0,1-J29/MAX(J$1:J29))</f>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="I30" s="9">
         <f t="shared" si="2"/>
-        <v>-13.963215232192697</v>
+        <v>-0.13963215232192694</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="3"/>
-        <v>124.82920133179717</v>
+        <v>1.2482920133179713</v>
       </c>
       <c r="K30" s="11">
         <f>IF(MAX(J$1:J30)=J30,0,1-J30/MAX(J$1:J30))</f>
@@ -2194,15 +2194,15 @@
       </c>
       <c r="I31" s="9">
         <f t="shared" si="2"/>
-        <v>-2.8616907161512501</v>
+        <v>-2.8616907161512495E-2</v>
       </c>
       <c r="J31" s="10">
         <f t="shared" si="3"/>
-        <v>121.96751061564592</v>
+        <v>1.2196751061564588</v>
       </c>
       <c r="K31" s="11">
         <f>IF(MAX(J$1:J31)=J31,0,1-J31/MAX(J$1:J31))</f>
-        <v>0.23418078302054934</v>
+        <v>0.23418078302054945</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2232,15 +2232,15 @@
       </c>
       <c r="I32" s="9">
         <f t="shared" si="2"/>
-        <v>10.381769611544652</v>
+        <v>0.10381769611544647</v>
       </c>
       <c r="J32" s="10">
         <f t="shared" si="3"/>
-        <v>132.34928022719058</v>
+        <v>1.3234928022719052</v>
       </c>
       <c r="K32" s="11">
         <f>IF(MAX(J$1:J32)=J32,0,1-J32/MAX(J$1:J32))</f>
-        <v>0.16899490987578514</v>
+        <v>0.16899490987578525</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2270,15 +2270,15 @@
       </c>
       <c r="I33" s="9">
         <f t="shared" si="2"/>
-        <v>7.4952137022758727</v>
+        <v>7.49521370227587E-2</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="3"/>
-        <v>139.84449392946644</v>
+        <v>1.3984449392946638</v>
       </c>
       <c r="K33" s="11">
         <f>IF(MAX(J$1:J33)=J33,0,1-J33/MAX(J$1:J33))</f>
-        <v>0.12193337144151428</v>
+        <v>0.1219333714415145</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2308,15 +2308,15 @@
       </c>
       <c r="I34" s="9">
         <f t="shared" si="2"/>
-        <v>12.222190612024836</v>
+        <v>0.12222190612024832</v>
       </c>
       <c r="J34" s="10">
         <f t="shared" si="3"/>
-        <v>152.06668454149127</v>
+        <v>1.5206668454149121</v>
       </c>
       <c r="K34" s="11">
         <f>IF(MAX(J$1:J34)=J34,0,1-J34/MAX(J$1:J34))</f>
-        <v>4.5191717889443206E-2</v>
+        <v>4.5191717889443428E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2346,15 +2346,15 @@
       </c>
       <c r="I35" s="9">
         <f t="shared" si="2"/>
-        <v>5.6337193882209613</v>
+        <v>5.6337193882209591E-2</v>
       </c>
       <c r="J35" s="10">
         <f t="shared" si="3"/>
-        <v>157.70040392971222</v>
+        <v>1.5770040392971216</v>
       </c>
       <c r="K35" s="11">
         <f>IF(MAX(J$1:J35)=J35,0,1-J35/MAX(J$1:J35))</f>
-        <v>9.8182766443788427E-3</v>
+        <v>9.8182766443790648E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2384,11 +2384,11 @@
       </c>
       <c r="I36" s="9">
         <f t="shared" si="2"/>
-        <v>4.2190472185577912</v>
+        <v>4.21904721855779E-2</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" si="3"/>
-        <v>161.91945114827001</v>
+        <v>1.6191945114826995</v>
       </c>
       <c r="K36" s="11">
         <f>IF(MAX(J$1:J36)=J36,0,1-J36/MAX(J$1:J36))</f>
@@ -2422,11 +2422,11 @@
       </c>
       <c r="I37" s="9">
         <f t="shared" si="2"/>
-        <v>-3.2341273030111779</v>
+        <v>-3.2341273030111764E-2</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" si="3"/>
-        <v>158.68532384525884</v>
+        <v>1.5868532384525877</v>
       </c>
       <c r="K37" s="11">
         <f>IF(MAX(J$1:J37)=J37,0,1-J37/MAX(J$1:J37))</f>
@@ -2460,11 +2460,11 @@
       </c>
       <c r="I38" s="9">
         <f t="shared" si="2"/>
-        <v>5.8871223691986039</v>
+        <v>5.8871223691986017E-2</v>
       </c>
       <c r="J38" s="10">
         <f t="shared" si="3"/>
-        <v>164.57244621445744</v>
+        <v>1.6457244621445737</v>
       </c>
       <c r="K38" s="11">
         <f>IF(MAX(J$1:J38)=J38,0,1-J38/MAX(J$1:J38))</f>
@@ -2498,15 +2498,15 @@
       </c>
       <c r="I39" s="9">
         <f t="shared" si="2"/>
-        <v>-5.0223132957583108</v>
+        <v>-5.0223132957583086E-2</v>
       </c>
       <c r="J39" s="10">
         <f t="shared" si="3"/>
-        <v>159.55013291869912</v>
+        <v>1.5955013291869906</v>
       </c>
       <c r="K39" s="11">
         <f>IF(MAX(J$1:J39)=J39,0,1-J39/MAX(J$1:J39))</f>
-        <v>3.0517340000000059E-2</v>
+        <v>3.0517339999999948E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2536,11 +2536,11 @@
       </c>
       <c r="I40" s="9">
         <f t="shared" si="2"/>
-        <v>6.8009073817286678</v>
+        <v>6.8009073817286658E-2</v>
       </c>
       <c r="J40" s="10">
         <f t="shared" si="3"/>
-        <v>166.3510403004278</v>
+        <v>1.6635104030042773</v>
       </c>
       <c r="K40" s="11">
         <f>IF(MAX(J$1:J40)=J40,0,1-J40/MAX(J$1:J40))</f>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="I41" s="9">
         <f t="shared" si="2"/>
-        <v>16.862153237928027</v>
+        <v>0.16862153237928021</v>
       </c>
       <c r="J41" s="10">
         <f t="shared" si="3"/>
-        <v>183.21319353835582</v>
+        <v>1.8321319353835575</v>
       </c>
       <c r="K41" s="11">
         <f>IF(MAX(J$1:J41)=J41,0,1-J41/MAX(J$1:J41))</f>
@@ -2612,11 +2612,11 @@
       </c>
       <c r="I42" s="9">
         <f t="shared" si="2"/>
-        <v>6.4370563129430423</v>
+        <v>6.4370563129430389E-2</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" si="3"/>
-        <v>189.65024985129887</v>
+        <v>1.8965024985129879</v>
       </c>
       <c r="K42" s="11">
         <f>IF(MAX(J$1:J42)=J42,0,1-J42/MAX(J$1:J42))</f>
@@ -2650,11 +2650,11 @@
       </c>
       <c r="I43" s="9">
         <f t="shared" si="2"/>
-        <v>-4.4233796695017134</v>
+        <v>-4.4233796695017112E-2</v>
       </c>
       <c r="J43" s="10">
         <f t="shared" si="3"/>
-        <v>185.22687018179715</v>
+        <v>1.8522687018179709</v>
       </c>
       <c r="K43" s="11">
         <f>IF(MAX(J$1:J43)=J43,0,1-J43/MAX(J$1:J43))</f>
@@ -2688,11 +2688,11 @@
       </c>
       <c r="I44" s="9">
         <f t="shared" si="2"/>
-        <v>3.2356300249646179</v>
+        <v>3.2356300249646169E-2</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="3"/>
-        <v>188.46250020676177</v>
+        <v>1.884625002067617</v>
       </c>
       <c r="K44" s="11">
         <f>IF(MAX(J$1:J44)=J44,0,1-J44/MAX(J$1:J44))</f>
@@ -2726,15 +2726,15 @@
       </c>
       <c r="I45" s="9">
         <f t="shared" si="2"/>
-        <v>-4.6547957154817663</v>
+        <v>-4.6547957154817639E-2</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" si="3"/>
-        <v>183.80770449128002</v>
+        <v>1.8380770449127992</v>
       </c>
       <c r="K45" s="11">
         <f>IF(MAX(J$1:J45)=J45,0,1-J45/MAX(J$1:J45))</f>
-        <v>3.0806947866400813E-2</v>
+        <v>3.0806947866400924E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2764,15 +2764,15 @@
       </c>
       <c r="I46" s="9">
         <f t="shared" si="2"/>
-        <v>2.1307632431594898</v>
+        <v>2.1307632431594888E-2</v>
       </c>
       <c r="J46" s="10">
         <f t="shared" si="3"/>
-        <v>185.93846773443951</v>
+        <v>1.8593846773443941</v>
       </c>
       <c r="K46" s="11">
         <f>IF(MAX(J$1:J46)=J46,0,1-J46/MAX(J$1:J46))</f>
-        <v>1.9571722788499835E-2</v>
+        <v>1.9571722788500057E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2802,15 +2802,15 @@
       </c>
       <c r="I47" s="9">
         <f t="shared" si="2"/>
-        <v>-7.6530097839422808</v>
+        <v>-7.6530097839422773E-2</v>
       </c>
       <c r="J47" s="10">
         <f t="shared" si="3"/>
-        <v>178.28545795049723</v>
+        <v>1.7828545795049713</v>
       </c>
       <c r="K47" s="11">
         <f>IF(MAX(J$1:J47)=J47,0,1-J47/MAX(J$1:J47))</f>
-        <v>5.9925003577440794E-2</v>
+        <v>5.9925003577441016E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2840,15 +2840,15 @@
       </c>
       <c r="I48" s="9">
         <f t="shared" si="2"/>
-        <v>-3.5463188326032489</v>
+        <v>-3.5463188326032465E-2</v>
       </c>
       <c r="J48" s="10">
         <f t="shared" si="3"/>
-        <v>174.73913911789398</v>
+        <v>1.7473913911789387</v>
       </c>
       <c r="K48" s="11">
         <f>IF(MAX(J$1:J48)=J48,0,1-J48/MAX(J$1:J48))</f>
-        <v>7.86242609492811E-2</v>
+        <v>7.8624260949281322E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2878,15 +2878,15 @@
       </c>
       <c r="I49" s="9">
         <f t="shared" si="2"/>
-        <v>-6.7685782176475318</v>
+        <v>-6.7685782176475279E-2</v>
       </c>
       <c r="J49" s="10">
         <f t="shared" si="3"/>
-        <v>167.97056090024645</v>
+        <v>1.6797056090024634</v>
       </c>
       <c r="K49" s="11">
         <f>IF(MAX(J$1:J49)=J49,0,1-J49/MAX(J$1:J49))</f>
-        <v>0.11431405425540453</v>
+        <v>0.11431405425540486</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2916,15 +2916,15 @@
       </c>
       <c r="I50" s="9">
         <f t="shared" si="2"/>
-        <v>2.7247646883443095</v>
+        <v>2.7247646883443076E-2</v>
       </c>
       <c r="J50" s="10">
         <f t="shared" si="3"/>
-        <v>170.69532558859078</v>
+        <v>1.7069532558859064</v>
       </c>
       <c r="K50" s="11">
         <f>IF(MAX(J$1:J50)=J50,0,1-J50/MAX(J$1:J50))</f>
-        <v>9.9946740263038292E-2</v>
+        <v>9.9946740263038736E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2954,15 +2954,15 @@
       </c>
       <c r="I51" s="9">
         <f t="shared" si="2"/>
-        <v>1.0993717792195983</v>
+        <v>1.0993717792195974E-2</v>
       </c>
       <c r="J51" s="10">
         <f t="shared" si="3"/>
-        <v>171.79469736781039</v>
+        <v>1.7179469736781023</v>
       </c>
       <c r="K51" s="11">
         <f>IF(MAX(J$1:J51)=J51,0,1-J51/MAX(J$1:J51))</f>
-        <v>9.4149902241039363E-2</v>
+        <v>9.4149902241039807E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2992,15 +2992,15 @@
       </c>
       <c r="I52" s="9">
         <f t="shared" si="2"/>
-        <v>-0.86475437840547875</v>
+        <v>-8.64754378405478E-3</v>
       </c>
       <c r="J52" s="10">
         <f t="shared" si="3"/>
-        <v>170.92994298940491</v>
+        <v>1.7092994298940476</v>
       </c>
       <c r="K52" s="11">
         <f>IF(MAX(J$1:J52)=J52,0,1-J52/MAX(J$1:J52))</f>
-        <v>9.8709634585623762E-2</v>
+        <v>9.8709634585624206E-2</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3030,15 +3030,15 @@
       </c>
       <c r="I53" s="9">
         <f t="shared" si="2"/>
-        <v>-8.2972727460945439</v>
+        <v>-8.2972727460945361E-2</v>
       </c>
       <c r="J53" s="10">
         <f t="shared" si="3"/>
-        <v>162.63267024331037</v>
+        <v>1.6263267024331023</v>
       </c>
       <c r="K53" s="11">
         <f>IF(MAX(J$1:J53)=J53,0,1-J53/MAX(J$1:J53))</f>
-        <v>0.14246002643905009</v>
+        <v>0.14246002643905054</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3068,15 +3068,15 @@
       </c>
       <c r="I54" s="9">
         <f t="shared" si="2"/>
-        <v>-1.1843577841065858</v>
+        <v>-1.1843577841065848E-2</v>
       </c>
       <c r="J54" s="10">
         <f t="shared" si="3"/>
-        <v>161.44831245920378</v>
+        <v>1.6144831245920364</v>
       </c>
       <c r="K54" s="11">
         <f>IF(MAX(J$1:J54)=J54,0,1-J54/MAX(J$1:J54))</f>
-        <v>0.14870498411791011</v>
+        <v>0.14870498411791055</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3106,15 +3106,15 @@
       </c>
       <c r="I55" s="9">
         <f t="shared" si="2"/>
-        <v>-1.967722345354028</v>
+        <v>-1.9677223453540262E-2</v>
       </c>
       <c r="J55" s="10">
         <f t="shared" si="3"/>
-        <v>159.48059011384976</v>
+        <v>1.5948059011384961</v>
       </c>
       <c r="K55" s="11">
         <f>IF(MAX(J$1:J55)=J55,0,1-J55/MAX(J$1:J55))</f>
-        <v>0.15908051669378009</v>
+        <v>0.15908051669378054</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3144,15 +3144,15 @@
       </c>
       <c r="I56" s="9">
         <f t="shared" si="2"/>
-        <v>25.771176650317088</v>
+        <v>0.25771176650317063</v>
       </c>
       <c r="J56" s="10">
         <f t="shared" si="3"/>
-        <v>185.25176676416686</v>
+        <v>1.8525176676416666</v>
       </c>
       <c r="K56" s="11">
         <f>IF(MAX(J$1:J56)=J56,0,1-J56/MAX(J$1:J56))</f>
-        <v>2.3192603703822035E-2</v>
+        <v>2.3192603703822701E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3182,15 +3182,15 @@
       </c>
       <c r="I57" s="9">
         <f t="shared" si="2"/>
-        <v>-7.5986365914382521</v>
+        <v>-7.5986365914382445E-2</v>
       </c>
       <c r="J57" s="10">
         <f t="shared" si="3"/>
-        <v>177.65313017272859</v>
+        <v>1.7765313017272841</v>
       </c>
       <c r="K57" s="11">
         <f>IF(MAX(J$1:J57)=J57,0,1-J57/MAX(J$1:J57))</f>
-        <v>6.3259182036285111E-2</v>
+        <v>6.3259182036285666E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3220,15 +3220,15 @@
       </c>
       <c r="I58" s="9">
         <f t="shared" si="2"/>
-        <v>-4.5368683311938067</v>
+        <v>-4.5368683311938024E-2</v>
       </c>
       <c r="J58" s="10">
         <f t="shared" si="3"/>
-        <v>173.11626184153479</v>
+        <v>1.7311626184153461</v>
       </c>
       <c r="K58" s="11">
         <f>IF(MAX(J$1:J58)=J58,0,1-J58/MAX(J$1:J58))</f>
-        <v>8.7181472329870724E-2</v>
+        <v>8.7181472329871279E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3258,15 +3258,15 @@
       </c>
       <c r="I59" s="9">
         <f t="shared" si="2"/>
-        <v>-3.6553515999466257</v>
+        <v>-3.655351599946622E-2</v>
       </c>
       <c r="J59" s="10">
         <f t="shared" si="3"/>
-        <v>169.46091024158818</v>
+        <v>1.6946091024158798</v>
       </c>
       <c r="K59" s="11">
         <f>IF(MAX(J$1:J59)=J59,0,1-J59/MAX(J$1:J59))</f>
-        <v>0.10645564466981072</v>
+        <v>0.10645564466981139</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3296,11 +3296,11 @@
       </c>
       <c r="I60" s="9">
         <f t="shared" si="2"/>
-        <v>34.721194988874096</v>
+        <v>0.34721194988874055</v>
       </c>
       <c r="J60" s="10">
         <f t="shared" si="3"/>
-        <v>204.18210523046227</v>
+        <v>2.0418210523046203</v>
       </c>
       <c r="K60" s="11">
         <f>IF(MAX(J$1:J60)=J60,0,1-J60/MAX(J$1:J60))</f>
@@ -3334,15 +3334,15 @@
       </c>
       <c r="I61" s="9">
         <f t="shared" si="2"/>
-        <v>-13.769767572721365</v>
+        <v>-0.1376976757272135</v>
       </c>
       <c r="J61" s="10">
         <f t="shared" si="3"/>
-        <v>190.41233765774089</v>
+        <v>1.9041233765774068</v>
       </c>
       <c r="K61" s="11">
         <f>IF(MAX(J$1:J61)=J61,0,1-J61/MAX(J$1:J61))</f>
-        <v>6.7438660000000095E-2</v>
+        <v>6.7438659999999984E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3372,15 +3372,15 @@
       </c>
       <c r="I62" s="9">
         <f t="shared" si="2"/>
-        <v>-5.1834808206540854</v>
+        <v>-5.1834808206540801E-2</v>
       </c>
       <c r="J62" s="10">
         <f t="shared" si="3"/>
-        <v>185.22885683708679</v>
+        <v>1.8522885683708661</v>
       </c>
       <c r="K62" s="11">
         <f>IF(MAX(J$1:J62)=J62,0,1-J62/MAX(J$1:J62))</f>
-        <v>9.2825217822016137E-2</v>
+        <v>9.2825217822015915E-2</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3410,11 +3410,11 @@
       </c>
       <c r="I63" s="9">
         <f t="shared" si="2"/>
-        <v>34.721215896500382</v>
+        <v>0.34721215896500346</v>
       </c>
       <c r="J63" s="10">
         <f t="shared" si="3"/>
-        <v>219.95007273358718</v>
+        <v>2.1995007273358693</v>
       </c>
       <c r="K63" s="11">
         <f>IF(MAX(J$1:J63)=J63,0,1-J63/MAX(J$1:J63))</f>
@@ -3448,11 +3448,11 @@
       </c>
       <c r="I64" s="9">
         <f t="shared" si="2"/>
-        <v>-9.3813456942445974</v>
+        <v>-9.3813456942445875E-2</v>
       </c>
       <c r="J64" s="10">
         <f t="shared" si="3"/>
-        <v>210.56872703934258</v>
+        <v>2.1056872703934233</v>
       </c>
       <c r="K64" s="11">
         <f>IF(MAX(J$1:J64)=J64,0,1-J64/MAX(J$1:J64))</f>
@@ -3486,15 +3486,15 @@
       </c>
       <c r="I65" s="9">
         <f t="shared" si="2"/>
-        <v>-10.275113750589718</v>
+        <v>-0.10275113750589707</v>
       </c>
       <c r="J65" s="10">
         <f t="shared" si="3"/>
-        <v>200.29361328875285</v>
+        <v>2.0029361328875264</v>
       </c>
       <c r="K65" s="11">
         <f>IF(MAX(J$1:J65)=J65,0,1-J65/MAX(J$1:J65))</f>
-        <v>8.9367824254566464E-2</v>
+        <v>8.9367824254566353E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3524,11 +3524,11 @@
       </c>
       <c r="I66" s="9">
         <f t="shared" si="2"/>
-        <v>28.328156652310177</v>
+        <v>0.28328156652310149</v>
       </c>
       <c r="J66" s="10">
         <f t="shared" si="3"/>
-        <v>228.62176994106304</v>
+        <v>2.2862176994106278</v>
       </c>
       <c r="K66" s="11">
         <f>IF(MAX(J$1:J66)=J66,0,1-J66/MAX(J$1:J66))</f>
@@ -3562,11 +3562,11 @@
       </c>
       <c r="I67" s="9">
         <f t="shared" si="2"/>
-        <v>-2.7975805846732049</v>
+        <v>-2.7975805846732017E-2</v>
       </c>
       <c r="J67" s="10">
         <f t="shared" si="3"/>
-        <v>225.82418935638984</v>
+        <v>2.2582418935638957</v>
       </c>
       <c r="K67" s="11">
         <f>IF(MAX(J$1:J67)=J67,0,1-J67/MAX(J$1:J67))</f>
@@ -3600,11 +3600,11 @@
       </c>
       <c r="I68" s="9">
         <f t="shared" si="2"/>
-        <v>-8.5039044051895498</v>
+        <v>-8.5039044051895399E-2</v>
       </c>
       <c r="J68" s="10">
         <f t="shared" si="3"/>
-        <v>217.32028495120028</v>
+        <v>2.1732028495120002</v>
       </c>
       <c r="K68" s="11">
         <f>IF(MAX(J$1:J68)=J68,0,1-J68/MAX(J$1:J68))</f>
@@ -3638,11 +3638,11 @@
       </c>
       <c r="I69" s="9">
         <f t="shared" si="2"/>
-        <v>-4.3814485949723867</v>
+        <v>-4.3814485949723807E-2</v>
       </c>
       <c r="J69" s="10">
         <f t="shared" si="3"/>
-        <v>212.93883635622788</v>
+        <v>2.1293883635622763</v>
       </c>
       <c r="K69" s="11">
         <f>IF(MAX(J$1:J69)=J69,0,1-J69/MAX(J$1:J69))</f>
@@ -3676,11 +3676,11 @@
       </c>
       <c r="I70" s="9">
         <f t="shared" si="2"/>
-        <v>-6.3981263694515809</v>
+        <v>-6.3981263694515733E-2</v>
       </c>
       <c r="J70" s="10">
         <f t="shared" si="3"/>
-        <v>206.54070998677631</v>
+        <v>2.0654070998677607</v>
       </c>
       <c r="K70" s="11">
         <f>IF(MAX(J$1:J70)=J70,0,1-J70/MAX(J$1:J70))</f>
@@ -3714,15 +3714,15 @@
       </c>
       <c r="I71" s="9">
         <f t="shared" si="2"/>
-        <v>7.8827480556642096</v>
+        <v>7.8827480556642002E-2</v>
       </c>
       <c r="J71" s="10">
         <f t="shared" si="3"/>
-        <v>214.42345804244053</v>
+        <v>2.1442345804244027</v>
       </c>
       <c r="K71" s="11">
         <f>IF(MAX(J$1:J71)=J71,0,1-J71/MAX(J$1:J71))</f>
-        <v>6.2103936568607243E-2</v>
+        <v>6.2103936568607354E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3752,11 +3752,11 @@
       </c>
       <c r="I72" s="9">
         <f t="shared" si="2"/>
-        <v>-2.0106637757060275</v>
+        <v>-2.0106637757060251E-2</v>
       </c>
       <c r="J72" s="10">
         <f t="shared" si="3"/>
-        <v>212.41279426673449</v>
+        <v>2.1241279426673425</v>
       </c>
       <c r="K72" s="11">
         <f>IF(MAX(J$1:J72)=J72,0,1-J72/MAX(J$1:J72))</f>
@@ -3790,11 +3790,11 @@
       </c>
       <c r="I73" s="9">
         <f t="shared" si="2"/>
-        <v>-8.7735532817197122</v>
+        <v>-8.7735532817197009E-2</v>
       </c>
       <c r="J73" s="10">
         <f t="shared" si="3"/>
-        <v>203.63924098501479</v>
+        <v>2.0363924098501456</v>
       </c>
       <c r="K73" s="11">
         <f>IF(MAX(J$1:J73)=J73,0,1-J73/MAX(J$1:J73))</f>
@@ -3828,15 +3828,15 @@
       </c>
       <c r="I74" s="9">
         <f t="shared" si="2"/>
-        <v>-7.310783153261081</v>
+        <v>-7.3107831532610731E-2</v>
       </c>
       <c r="J74" s="10">
         <f t="shared" si="3"/>
-        <v>196.32845783175372</v>
+        <v>1.9632845783175348</v>
       </c>
       <c r="K74" s="11">
         <f>IF(MAX(J$1:J74)=J74,0,1-J74/MAX(J$1:J74))</f>
-        <v>0.14125213061570774</v>
+        <v>0.14125213061570785</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3866,15 +3866,15 @@
       </c>
       <c r="I75" s="9">
         <f t="shared" si="2"/>
-        <v>5.9020869611601077</v>
+        <v>5.9020869611601003E-2</v>
       </c>
       <c r="J75" s="10">
         <f t="shared" si="3"/>
-        <v>202.23054479291383</v>
+        <v>2.0223054479291358</v>
       </c>
       <c r="K75" s="11">
         <f>IF(MAX(J$1:J75)=J75,0,1-J75/MAX(J$1:J75))</f>
-        <v>0.11543618595443761</v>
+        <v>0.11543618595443772</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3904,15 +3904,15 @@
       </c>
       <c r="I76" s="9">
         <f t="shared" si="2"/>
-        <v>23.646352472382389</v>
+        <v>0.23646352472382359</v>
       </c>
       <c r="J76" s="10">
         <f t="shared" si="3"/>
-        <v>225.87689726529624</v>
+        <v>2.2587689726529594</v>
       </c>
       <c r="K76" s="11">
         <f>IF(MAX(J$1:J76)=J76,0,1-J76/MAX(J$1:J76))</f>
-        <v>1.2006173674862231E-2</v>
+        <v>1.2006173674862453E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3942,11 +3942,11 @@
       </c>
       <c r="I77" s="9">
         <f t="shared" si="2"/>
-        <v>5.8829163551262154</v>
+        <v>5.8829163551262074E-2</v>
       </c>
       <c r="J77" s="10">
         <f t="shared" si="3"/>
-        <v>231.75981362042245</v>
+        <v>2.3175981362042215</v>
       </c>
       <c r="K77" s="11">
         <f>IF(MAX(J$1:J77)=J77,0,1-J77/MAX(J$1:J77))</f>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="I78" s="9">
         <f t="shared" si="2"/>
-        <v>14.168031312570978</v>
+        <v>0.14168031312570958</v>
       </c>
       <c r="J78" s="10">
         <f t="shared" si="3"/>
-        <v>245.92784493299342</v>
+        <v>2.4592784493299309</v>
       </c>
       <c r="K78" s="11">
         <f>IF(MAX(J$1:J78)=J78,0,1-J78/MAX(J$1:J78))</f>
@@ -4018,15 +4018,15 @@
       </c>
       <c r="I79" s="9">
         <f t="shared" si="2"/>
-        <v>-7.5653922189279497</v>
+        <v>-7.5653922189279396E-2</v>
       </c>
       <c r="J79" s="10">
         <f t="shared" si="3"/>
-        <v>238.36245271406548</v>
+        <v>2.3836245271406513</v>
       </c>
       <c r="K79" s="11">
         <f>IF(MAX(J$1:J79)=J79,0,1-J79/MAX(J$1:J79))</f>
-        <v>3.0762650000000002E-2</v>
+        <v>3.0762650000000114E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4056,15 +4056,15 @@
       </c>
       <c r="I80" s="9">
         <f t="shared" si="2"/>
-        <v>-9.4397013611182352</v>
+        <v>-9.4397013611182218E-2</v>
       </c>
       <c r="J80" s="10">
         <f t="shared" si="3"/>
-        <v>228.92275135294724</v>
+        <v>2.2892275135294691</v>
       </c>
       <c r="K80" s="11">
         <f>IF(MAX(J$1:J80)=J80,0,1-J80/MAX(J$1:J80))</f>
-        <v>6.9146678305904929E-2</v>
+        <v>6.914667830590504E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4094,11 +4094,11 @@
       </c>
       <c r="I81" s="9">
         <f t="shared" si="2"/>
-        <v>42.460333238235627</v>
+        <v>0.42460333238235559</v>
       </c>
       <c r="J81" s="10">
         <f t="shared" si="3"/>
-        <v>271.38308459118286</v>
+        <v>2.7138308459118248</v>
       </c>
       <c r="K81" s="11">
         <f>IF(MAX(J$1:J81)=J81,0,1-J81/MAX(J$1:J81))</f>
@@ -4132,11 +4132,11 @@
       </c>
       <c r="I82" s="9">
         <f t="shared" ref="I82:I145" si="4">IF(P$1,H82*J81*P$3,H82*P$2*P$3)</f>
-        <v>30.192478117585072</v>
+        <v>0.30192478117585031</v>
       </c>
       <c r="J82" s="10">
         <f t="shared" ref="J82:J145" si="5">I82+J81</f>
-        <v>301.57556270876796</v>
+        <v>3.0157556270876751</v>
       </c>
       <c r="K82" s="11">
         <f>IF(MAX(J$1:J82)=J82,0,1-J82/MAX(J$1:J82))</f>
@@ -4170,11 +4170,11 @@
       </c>
       <c r="I83" s="9">
         <f t="shared" si="4"/>
-        <v>5.6337149924287315</v>
+        <v>5.6337149924287233E-2</v>
       </c>
       <c r="J83" s="10">
         <f t="shared" si="5"/>
-        <v>307.2092777011967</v>
+        <v>3.0720927770119624</v>
       </c>
       <c r="K83" s="11">
         <f>IF(MAX(J$1:J83)=J83,0,1-J83/MAX(J$1:J83))</f>
@@ -4208,11 +4208,11 @@
       </c>
       <c r="I84" s="9">
         <f t="shared" si="4"/>
-        <v>29.683439030023852</v>
+        <v>0.29683439030023806</v>
       </c>
       <c r="J84" s="10">
         <f t="shared" si="5"/>
-        <v>336.89271673122056</v>
+        <v>3.3689271673122003</v>
       </c>
       <c r="K84" s="11">
         <f>IF(MAX(J$1:J84)=J84,0,1-J84/MAX(J$1:J84))</f>
@@ -4246,11 +4246,11 @@
       </c>
       <c r="I85" s="9">
         <f t="shared" si="4"/>
-        <v>2.6086108395573504</v>
+        <v>2.6086108395573463E-2</v>
       </c>
       <c r="J85" s="10">
         <f t="shared" si="5"/>
-        <v>339.5013275707779</v>
+        <v>3.395013275707774</v>
       </c>
       <c r="K85" s="11">
         <f>IF(MAX(J$1:J85)=J85,0,1-J85/MAX(J$1:J85))</f>
@@ -4284,11 +4284,11 @@
       </c>
       <c r="I86" s="9">
         <f t="shared" si="4"/>
-        <v>-13.531989899886922</v>
+        <v>-0.13531989899886901</v>
       </c>
       <c r="J86" s="10">
         <f t="shared" si="5"/>
-        <v>325.96933767089098</v>
+        <v>3.2596933767089049</v>
       </c>
       <c r="K86" s="11">
         <f>IF(MAX(J$1:J86)=J86,0,1-J86/MAX(J$1:J86))</f>
@@ -4322,11 +4322,11 @@
       </c>
       <c r="I87" s="9">
         <f t="shared" si="4"/>
-        <v>17.007649034274714</v>
+        <v>0.17007649034274691</v>
       </c>
       <c r="J87" s="10">
         <f t="shared" si="5"/>
-        <v>342.9769867051657</v>
+        <v>3.4297698670516517</v>
       </c>
       <c r="K87" s="11">
         <f>IF(MAX(J$1:J87)=J87,0,1-J87/MAX(J$1:J87))</f>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="I88" s="9">
         <f t="shared" si="4"/>
-        <v>-0.20493560909607061</v>
+        <v>-2.049356090960703E-3</v>
       </c>
       <c r="J88" s="10">
         <f t="shared" si="5"/>
-        <v>342.77205109606962</v>
+        <v>3.427720510960691</v>
       </c>
       <c r="K88" s="11">
         <f>IF(MAX(J$1:J88)=J88,0,1-J88/MAX(J$1:J88))</f>
@@ -4398,11 +4398,11 @@
       </c>
       <c r="I89" s="9">
         <f t="shared" si="4"/>
-        <v>21.21984883066343</v>
+        <v>0.21219848830663399</v>
       </c>
       <c r="J89" s="10">
         <f t="shared" si="5"/>
-        <v>363.99189992673303</v>
+        <v>3.6399189992673251</v>
       </c>
       <c r="K89" s="11">
         <f>IF(MAX(J$1:J89)=J89,0,1-J89/MAX(J$1:J89))</f>
@@ -4436,11 +4436,11 @@
       </c>
       <c r="I90" s="9">
         <f t="shared" si="4"/>
-        <v>-8.421400314841879</v>
+        <v>-8.4214003148418662E-2</v>
       </c>
       <c r="J90" s="10">
         <f t="shared" si="5"/>
-        <v>355.57049961189114</v>
+        <v>3.5557049961189064</v>
       </c>
       <c r="K90" s="11">
         <f>IF(MAX(J$1:J90)=J90,0,1-J90/MAX(J$1:J90))</f>
@@ -4474,15 +4474,15 @@
       </c>
       <c r="I91" s="9">
         <f t="shared" si="4"/>
-        <v>-2.9945187436964522</v>
+        <v>-2.994518743696448E-2</v>
       </c>
       <c r="J91" s="10">
         <f t="shared" si="5"/>
-        <v>352.57598086819468</v>
+        <v>3.5257598086819422</v>
       </c>
       <c r="K91" s="11">
         <f>IF(MAX(J$1:J91)=J91,0,1-J91/MAX(J$1:J91))</f>
-        <v>3.1363112917722202E-2</v>
+        <v>3.1363112917722091E-2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4512,11 +4512,11 @@
       </c>
       <c r="I92" s="9">
         <f t="shared" si="4"/>
-        <v>-5.736647434632709</v>
+        <v>-5.7366474346327016E-2</v>
       </c>
       <c r="J92" s="10">
         <f t="shared" si="5"/>
-        <v>346.83933343356199</v>
+        <v>3.468393334335615</v>
       </c>
       <c r="K92" s="11">
         <f>IF(MAX(J$1:J92)=J92,0,1-J92/MAX(J$1:J92))</f>
@@ -4550,15 +4550,15 @@
       </c>
       <c r="I93" s="9">
         <f t="shared" si="4"/>
-        <v>-17.248854184224523</v>
+        <v>-0.17248854184224499</v>
       </c>
       <c r="J93" s="10">
         <f t="shared" si="5"/>
-        <v>329.59047924933748</v>
+        <v>3.2959047924933702</v>
       </c>
       <c r="K93" s="11">
         <f>IF(MAX(J$1:J93)=J93,0,1-J93/MAX(J$1:J93))</f>
-        <v>9.4511500624931855E-2</v>
+        <v>9.4511500624931744E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4588,11 +4588,11 @@
       </c>
       <c r="I94" s="9">
         <f t="shared" si="4"/>
-        <v>-9.9455278434452499</v>
+        <v>-9.9455278434452371E-2</v>
       </c>
       <c r="J94" s="10">
         <f t="shared" si="5"/>
-        <v>319.64495140589224</v>
+        <v>3.196449514058918</v>
       </c>
       <c r="K94" s="11">
         <f>IF(MAX(J$1:J94)=J94,0,1-J94/MAX(J$1:J94))</f>
@@ -4626,11 +4626,11 @@
       </c>
       <c r="I95" s="9">
         <f t="shared" si="4"/>
-        <v>1.0590060991543193</v>
+        <v>1.0590060991543179E-2</v>
       </c>
       <c r="J95" s="10">
         <f t="shared" si="5"/>
-        <v>320.70395750504656</v>
+        <v>3.207039575050461</v>
       </c>
       <c r="K95" s="11">
         <f>IF(MAX(J$1:J95)=J95,0,1-J95/MAX(J$1:J95))</f>
@@ -4664,15 +4664,15 @@
       </c>
       <c r="I96" s="9">
         <f t="shared" si="4"/>
-        <v>-16.255928788084326</v>
+        <v>-0.16255928788084303</v>
       </c>
       <c r="J96" s="10">
         <f t="shared" si="5"/>
-        <v>304.44802871696226</v>
+        <v>3.0444802871696179</v>
       </c>
       <c r="K96" s="11">
         <f>IF(MAX(J$1:J96)=J96,0,1-J96/MAX(J$1:J96))</f>
-        <v>0.16358570402735939</v>
+        <v>0.1635857040273595</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4702,15 +4702,15 @@
       </c>
       <c r="I97" s="9">
         <f t="shared" si="4"/>
-        <v>12.849892748701993</v>
+        <v>0.12849892748701974</v>
       </c>
       <c r="J97" s="10">
         <f t="shared" si="5"/>
-        <v>317.29792146566427</v>
+        <v>3.1729792146566376</v>
       </c>
       <c r="K97" s="11">
         <f>IF(MAX(J$1:J97)=J97,0,1-J97/MAX(J$1:J97))</f>
-        <v>0.12828301528266883</v>
+        <v>0.12828301528266906</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4740,15 +4740,15 @@
       </c>
       <c r="I98" s="9">
         <f t="shared" si="4"/>
-        <v>-4.7034593928878454</v>
+        <v>-4.7034593928878377E-2</v>
       </c>
       <c r="J98" s="10">
         <f t="shared" si="5"/>
-        <v>312.59446207277642</v>
+        <v>3.125944620727759</v>
       </c>
       <c r="K98" s="11">
         <f>IF(MAX(J$1:J98)=J98,0,1-J98/MAX(J$1:J98))</f>
-        <v>0.14120489457128649</v>
+        <v>0.14120489457128671</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4778,15 +4778,15 @@
       </c>
       <c r="I99" s="9">
         <f t="shared" si="4"/>
-        <v>-9.2806076066447964</v>
+        <v>-9.2806076066447807E-2</v>
       </c>
       <c r="J99" s="10">
         <f t="shared" si="5"/>
-        <v>303.3138544661316</v>
+        <v>3.0331385446613113</v>
       </c>
       <c r="K99" s="11">
         <f>IF(MAX(J$1:J99)=J99,0,1-J99/MAX(J$1:J99))</f>
-        <v>0.16670163669250648</v>
+        <v>0.16670163669250659</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4816,15 +4816,15 @@
       </c>
       <c r="I100" s="9">
         <f t="shared" si="4"/>
-        <v>-11.128934131295004</v>
+        <v>-0.11128934131294987</v>
       </c>
       <c r="J100" s="10">
         <f t="shared" si="5"/>
-        <v>292.18492033483659</v>
+        <v>2.9218492033483612</v>
       </c>
       <c r="K100" s="11">
         <f>IF(MAX(J$1:J100)=J100,0,1-J100/MAX(J$1:J100))</f>
-        <v>0.1972763119353762</v>
+        <v>0.19727631193537642</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4854,15 +4854,15 @@
       </c>
       <c r="I101" s="9">
         <f t="shared" si="4"/>
-        <v>-5.8291446758148533</v>
+        <v>-5.8291446758148444E-2</v>
       </c>
       <c r="J101" s="10">
         <f t="shared" si="5"/>
-        <v>286.35577565902173</v>
+        <v>2.8635577565902128</v>
       </c>
       <c r="K101" s="11">
         <f>IF(MAX(J$1:J101)=J101,0,1-J101/MAX(J$1:J101))</f>
-        <v>0.21329080202976625</v>
+        <v>0.21329080202976636</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4892,15 +4892,15 @@
       </c>
       <c r="I102" s="9">
         <f t="shared" si="4"/>
-        <v>13.837908046986184</v>
+        <v>0.13837908046986164</v>
       </c>
       <c r="J102" s="10">
         <f t="shared" si="5"/>
-        <v>300.1936837060079</v>
+        <v>3.0019368370600743</v>
       </c>
       <c r="K102" s="11">
         <f>IF(MAX(J$1:J102)=J102,0,1-J102/MAX(J$1:J102))</f>
-        <v>0.1752737251393971</v>
+        <v>0.17527372513939721</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4930,15 +4930,15 @@
       </c>
       <c r="I103" s="9">
         <f t="shared" si="4"/>
-        <v>-11.860820551687247</v>
+        <v>-0.11860820551687229</v>
       </c>
       <c r="J103" s="10">
         <f t="shared" si="5"/>
-        <v>288.33286315432065</v>
+        <v>2.8833286315432018</v>
       </c>
       <c r="K103" s="11">
         <f>IF(MAX(J$1:J103)=J103,0,1-J103/MAX(J$1:J103))</f>
-        <v>0.20785912210585344</v>
+        <v>0.20785912210585356</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4968,15 +4968,15 @@
       </c>
       <c r="I104" s="9">
         <f t="shared" si="4"/>
-        <v>-1.9573072749222642</v>
+        <v>-1.9573072749222611E-2</v>
       </c>
       <c r="J104" s="10">
         <f t="shared" si="5"/>
-        <v>286.37555587939841</v>
+        <v>2.8637555587939794</v>
       </c>
       <c r="K104" s="11">
         <f>IF(MAX(J$1:J104)=J104,0,1-J104/MAX(J$1:J104))</f>
-        <v>0.21323645955571491</v>
+        <v>0.21323645955571502</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5006,15 +5006,15 @@
       </c>
       <c r="I105" s="9">
         <f t="shared" si="4"/>
-        <v>37.094927373170378</v>
+        <v>0.37094927373170317</v>
       </c>
       <c r="J105" s="10">
         <f t="shared" si="5"/>
-        <v>323.47048325256878</v>
+        <v>3.2347048325256824</v>
       </c>
       <c r="K105" s="11">
         <f>IF(MAX(J$1:J105)=J105,0,1-J105/MAX(J$1:J105))</f>
-        <v>0.1113250505912925</v>
+        <v>0.11132505059129272</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -5044,15 +5044,15 @@
       </c>
       <c r="I106" s="9">
         <f t="shared" si="4"/>
-        <v>-8.6889314982323693</v>
+        <v>-8.6889314982323551E-2</v>
       </c>
       <c r="J106" s="10">
         <f t="shared" si="5"/>
-        <v>314.78155175433642</v>
+        <v>3.1478155175433589</v>
       </c>
       <c r="K106" s="11">
         <f>IF(MAX(J$1:J106)=J106,0,1-J106/MAX(J$1:J106))</f>
-        <v>0.13519627272557999</v>
+        <v>0.13519627272558021</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5082,15 +5082,15 @@
       </c>
       <c r="I107" s="9">
         <f t="shared" si="4"/>
-        <v>16.735288799262392</v>
+        <v>0.16735288799262363</v>
       </c>
       <c r="J107" s="10">
         <f t="shared" si="5"/>
-        <v>331.5168405535988</v>
+        <v>3.3151684055359825</v>
       </c>
       <c r="K107" s="11">
         <f>IF(MAX(J$1:J107)=J107,0,1-J107/MAX(J$1:J107))</f>
-        <v>8.9219181469892717E-2</v>
+        <v>8.9219181469892939E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5120,15 +5120,15 @@
       </c>
       <c r="I108" s="9">
         <f t="shared" si="4"/>
-        <v>3.4552607920171279</v>
+        <v>3.4552607920171223E-2</v>
       </c>
       <c r="J108" s="10">
         <f t="shared" si="5"/>
-        <v>334.9721013456159</v>
+        <v>3.3497210134561537</v>
       </c>
       <c r="K108" s="11">
         <f>IF(MAX(J$1:J108)=J108,0,1-J108/MAX(J$1:J108))</f>
-        <v>7.9726495526297292E-2</v>
+        <v>7.9726495526297403E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5158,15 +5158,15 @@
       </c>
       <c r="I109" s="9">
         <f t="shared" si="4"/>
-        <v>-11.578381027152496</v>
+        <v>-0.11578381027152478</v>
       </c>
       <c r="J109" s="10">
         <f t="shared" si="5"/>
-        <v>323.39372031846341</v>
+        <v>3.2339372031846287</v>
       </c>
       <c r="K109" s="11">
         <f>IF(MAX(J$1:J109)=J109,0,1-J109/MAX(J$1:J109))</f>
-        <v>0.11153594246586673</v>
+        <v>0.11153594246586696</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5196,15 +5196,15 @@
       </c>
       <c r="I110" s="9">
         <f t="shared" si="4"/>
-        <v>-16.000172729543841</v>
+        <v>-0.16000172729543816</v>
       </c>
       <c r="J110" s="10">
         <f t="shared" si="5"/>
-        <v>307.39354758891955</v>
+        <v>3.0739354758891908</v>
       </c>
       <c r="K110" s="11">
         <f>IF(MAX(J$1:J110)=J110,0,1-J110/MAX(J$1:J110))</f>
-        <v>0.15549343913753577</v>
+        <v>0.15549343913753588</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5234,15 +5234,15 @@
       </c>
       <c r="I111" s="9">
         <f t="shared" si="4"/>
-        <v>-17.56850646044618</v>
+        <v>-0.17568506460446154</v>
       </c>
       <c r="J111" s="10">
         <f t="shared" si="5"/>
-        <v>289.82504112847334</v>
+        <v>2.8982504112847294</v>
       </c>
       <c r="K111" s="11">
         <f>IF(MAX(J$1:J111)=J111,0,1-J111/MAX(J$1:J111))</f>
-        <v>0.20375964084142684</v>
+        <v>0.20375964084142673</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5272,15 +5272,15 @@
       </c>
       <c r="I112" s="9">
         <f t="shared" si="4"/>
-        <v>-19.542505462986611</v>
+        <v>-0.19542505462986584</v>
       </c>
       <c r="J112" s="10">
         <f t="shared" si="5"/>
-        <v>270.28253566548676</v>
+        <v>2.7028253566548637</v>
       </c>
       <c r="K112" s="11">
         <f>IF(MAX(J$1:J112)=J112,0,1-J112/MAX(J$1:J112))</f>
-        <v>0.2574490374101972</v>
+        <v>0.25744903741019731</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5310,11 +5310,11 @@
       </c>
       <c r="I113" s="9">
         <f t="shared" si="4"/>
-        <v>1.0753460963987056</v>
+        <v>1.0753460963987039E-2</v>
       </c>
       <c r="J113" s="10">
         <f t="shared" si="5"/>
-        <v>271.35788176188549</v>
+        <v>2.7135788176188509</v>
       </c>
       <c r="K113" s="11">
         <f>IF(MAX(J$1:J113)=J113,0,1-J113/MAX(J$1:J113))</f>
@@ -5348,15 +5348,15 @@
       </c>
       <c r="I114" s="9">
         <f t="shared" si="4"/>
-        <v>8.6836910113162862</v>
+        <v>8.6836910113162746E-2</v>
       </c>
       <c r="J114" s="10">
         <f t="shared" si="5"/>
-        <v>280.04157277320178</v>
+        <v>2.8004157277320134</v>
       </c>
       <c r="K114" s="11">
         <f>IF(MAX(J$1:J114)=J114,0,1-J114/MAX(J$1:J114))</f>
-        <v>0.23063789927860867</v>
+        <v>0.23063789927860878</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5386,15 +5386,15 @@
       </c>
       <c r="I115" s="9">
         <f t="shared" si="4"/>
-        <v>-12.094785496895005</v>
+        <v>-0.12094785496894986</v>
       </c>
       <c r="J115" s="10">
         <f t="shared" si="5"/>
-        <v>267.94678727630679</v>
+        <v>2.6794678727630634</v>
       </c>
       <c r="K115" s="11">
         <f>IF(MAX(J$1:J115)=J115,0,1-J115/MAX(J$1:J115))</f>
-        <v>0.26386607138718998</v>
+        <v>0.26386607138719009</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5424,15 +5424,15 @@
       </c>
       <c r="I116" s="9">
         <f t="shared" si="4"/>
-        <v>-10.344589462761904</v>
+        <v>-0.10344589462761887</v>
       </c>
       <c r="J116" s="10">
         <f t="shared" si="5"/>
-        <v>257.60219781354488</v>
+        <v>2.5760219781354445</v>
       </c>
       <c r="K116" s="11">
         <f>IF(MAX(J$1:J116)=J116,0,1-J116/MAX(J$1:J116))</f>
-        <v>0.29228590563307333</v>
+        <v>0.29228590563307344</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5462,15 +5462,15 @@
       </c>
       <c r="I117" s="9">
         <f t="shared" si="4"/>
-        <v>12.002381922067153</v>
+        <v>0.12002381922067133</v>
       </c>
       <c r="J117" s="10">
         <f t="shared" si="5"/>
-        <v>269.60457973561205</v>
+        <v>2.696045797356116</v>
       </c>
       <c r="K117" s="11">
         <f>IF(MAX(J$1:J117)=J117,0,1-J117/MAX(J$1:J117))</f>
-        <v>0.25931159514846336</v>
+        <v>0.25931159514846347</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5500,15 +5500,15 @@
       </c>
       <c r="I118" s="9">
         <f t="shared" si="4"/>
-        <v>16.712755545261022</v>
+        <v>0.16712755545260993</v>
       </c>
       <c r="J118" s="10">
         <f t="shared" si="5"/>
-        <v>286.31733528087307</v>
+        <v>2.863173352808726</v>
       </c>
       <c r="K118" s="11">
         <f>IF(MAX(J$1:J118)=J118,0,1-J118/MAX(J$1:J118))</f>
-        <v>0.21339640981432517</v>
+        <v>0.21339640981432539</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -5538,15 +5538,15 @@
       </c>
       <c r="I119" s="9">
         <f t="shared" si="4"/>
-        <v>2.8373647082065125</v>
+        <v>2.8373647082065079E-2</v>
       </c>
       <c r="J119" s="10">
         <f t="shared" si="5"/>
-        <v>289.15469998907957</v>
+        <v>2.891546999890791</v>
       </c>
       <c r="K119" s="11">
         <f>IF(MAX(J$1:J119)=J119,0,1-J119/MAX(J$1:J119))</f>
-        <v>0.20560127836008779</v>
+        <v>0.2056012783600879</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -5576,15 +5576,15 @@
       </c>
       <c r="I120" s="9">
         <f t="shared" si="4"/>
-        <v>-1.4641550642237036</v>
+        <v>-1.4641550642237012E-2</v>
       </c>
       <c r="J120" s="10">
         <f t="shared" si="5"/>
-        <v>287.69054492485589</v>
+        <v>2.8769054492485542</v>
       </c>
       <c r="K120" s="11">
         <f>IF(MAX(J$1:J120)=J120,0,1-J120/MAX(J$1:J120))</f>
-        <v>0.2096237718950219</v>
+        <v>0.20962377189502213</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -5614,15 +5614,15 @@
       </c>
       <c r="I121" s="9">
         <f t="shared" si="4"/>
-        <v>10.522937615069031</v>
+        <v>0.10522937615069014</v>
       </c>
       <c r="J121" s="10">
         <f t="shared" si="5"/>
-        <v>298.21348253992494</v>
+        <v>2.9821348253992443</v>
       </c>
       <c r="K121" s="11">
         <f>IF(MAX(J$1:J121)=J121,0,1-J121/MAX(J$1:J121))</f>
-        <v>0.18071395929428224</v>
+        <v>0.18071395929428247</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5652,15 +5652,15 @@
       </c>
       <c r="I122" s="9">
         <f t="shared" si="4"/>
-        <v>27.031203268652447</v>
+        <v>0.27031203268652404</v>
       </c>
       <c r="J122" s="10">
         <f t="shared" si="5"/>
-        <v>325.2446858085774</v>
+        <v>3.2524468580857686</v>
       </c>
       <c r="K122" s="11">
         <f>IF(MAX(J$1:J122)=J122,0,1-J122/MAX(J$1:J122))</f>
-        <v>0.10645075927776126</v>
+        <v>0.10645075927776149</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -5690,15 +5690,15 @@
       </c>
       <c r="I123" s="9">
         <f t="shared" si="4"/>
-        <v>-7.3557273093530702</v>
+        <v>-7.3557273093530579E-2</v>
       </c>
       <c r="J123" s="10">
         <f t="shared" si="5"/>
-        <v>317.88895849922432</v>
+        <v>3.1788895849922381</v>
       </c>
       <c r="K123" s="11">
         <f>IF(MAX(J$1:J123)=J123,0,1-J123/MAX(J$1:J123))</f>
-        <v>0.12665925103495068</v>
+        <v>0.12665925103495079</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -5728,15 +5728,15 @@
       </c>
       <c r="I124" s="9">
         <f t="shared" si="4"/>
-        <v>-12.432624451346323</v>
+        <v>-0.12432624451346302</v>
       </c>
       <c r="J124" s="10">
         <f t="shared" si="5"/>
-        <v>305.45633404787799</v>
+        <v>3.0545633404787749</v>
       </c>
       <c r="K124" s="11">
         <f>IF(MAX(J$1:J124)=J124,0,1-J124/MAX(J$1:J124))</f>
-        <v>0.1608155727933438</v>
+        <v>0.16081557279334391</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -5766,15 +5766,15 @@
       </c>
       <c r="I125" s="9">
         <f t="shared" si="4"/>
-        <v>18.468403123175904</v>
+        <v>0.18468403123175872</v>
       </c>
       <c r="J125" s="10">
         <f t="shared" si="5"/>
-        <v>323.92473717105389</v>
+        <v>3.2392473717105337</v>
       </c>
       <c r="K125" s="11">
         <f>IF(MAX(J$1:J125)=J125,0,1-J125/MAX(J$1:J125))</f>
-        <v>0.11007707249459164</v>
+        <v>0.11007707249459187</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5804,15 +5804,15 @@
       </c>
       <c r="I126" s="9">
         <f t="shared" si="4"/>
-        <v>-15.694461244437873</v>
+        <v>-0.15694461244437849</v>
       </c>
       <c r="J126" s="10">
         <f t="shared" si="5"/>
-        <v>308.230275926616</v>
+        <v>3.0823027592661552</v>
       </c>
       <c r="K126" s="11">
         <f>IF(MAX(J$1:J126)=J126,0,1-J126/MAX(J$1:J126))</f>
-        <v>0.1531946837590098</v>
+        <v>0.15319468375901002</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5842,15 +5842,15 @@
       </c>
       <c r="I127" s="9">
         <f t="shared" si="4"/>
-        <v>23.624722526965222</v>
+        <v>0.23624722526965186</v>
       </c>
       <c r="J127" s="10">
         <f t="shared" si="5"/>
-        <v>331.85499845358123</v>
+        <v>3.3185499845358071</v>
       </c>
       <c r="K127" s="11">
         <f>IF(MAX(J$1:J127)=J127,0,1-J127/MAX(J$1:J127))</f>
-        <v>8.8290155576595364E-2</v>
+        <v>8.8290155576595475E-2</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5880,15 +5880,15 @@
       </c>
       <c r="I128" s="9">
         <f t="shared" si="4"/>
-        <v>7.0663510910213478</v>
+        <v>7.0663510910213362E-2</v>
       </c>
       <c r="J128" s="10">
         <f t="shared" si="5"/>
-        <v>338.92134954460261</v>
+        <v>3.3892134954460205</v>
       </c>
       <c r="K128" s="11">
         <f>IF(MAX(J$1:J128)=J128,0,1-J128/MAX(J$1:J128))</f>
-        <v>6.8876671121464006E-2</v>
+        <v>6.8876671121464228E-2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -5918,15 +5918,15 @@
       </c>
       <c r="I129" s="9">
         <f t="shared" si="4"/>
-        <v>-10.495611287078894</v>
+        <v>-0.10495611287078876</v>
       </c>
       <c r="J129" s="10">
         <f t="shared" si="5"/>
-        <v>328.42573825752373</v>
+        <v>3.2842573825752317</v>
       </c>
       <c r="K129" s="11">
         <f>IF(MAX(J$1:J129)=J129,0,1-J129/MAX(J$1:J129))</f>
-        <v>9.7711409721942477E-2</v>
+        <v>9.7711409721942699E-2</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -5956,15 +5956,15 @@
       </c>
       <c r="I130" s="9">
         <f t="shared" si="4"/>
-        <v>-11.975374557054558</v>
+        <v>-0.11975374557054538</v>
       </c>
       <c r="J130" s="10">
         <f t="shared" si="5"/>
-        <v>316.45036370046915</v>
+        <v>3.1645036370046862</v>
       </c>
       <c r="K130" s="11">
         <f>IF(MAX(J$1:J130)=J130,0,1-J130/MAX(J$1:J130))</f>
-        <v>0.13061152249770769</v>
+        <v>0.13061152249770802</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -5994,15 +5994,15 @@
       </c>
       <c r="I131" s="9">
         <f t="shared" si="4"/>
-        <v>-11.422782198350355</v>
+        <v>-0.11422782198350336</v>
       </c>
       <c r="J131" s="10">
         <f t="shared" si="5"/>
-        <v>305.02758150211878</v>
+        <v>3.0502758150211826</v>
       </c>
       <c r="K131" s="11">
         <f>IF(MAX(J$1:J131)=J131,0,1-J131/MAX(J$1:J131))</f>
-        <v>0.16199349061471702</v>
+        <v>0.16199349061471724</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -6032,15 +6032,15 @@
       </c>
       <c r="I132" s="9">
         <f t="shared" si="4"/>
-        <v>-10.126830298147523</v>
+        <v>-0.10126830298147506</v>
       </c>
       <c r="J132" s="10">
         <f t="shared" si="5"/>
-        <v>294.90075120397125</v>
+        <v>2.9490075120397075</v>
       </c>
       <c r="K132" s="11">
         <f>IF(MAX(J$1:J132)=J132,0,1-J132/MAX(J$1:J132))</f>
-        <v>0.18981507208448578</v>
+        <v>0.189815072084486</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6070,15 +6070,15 @@
       </c>
       <c r="I133" s="9">
         <f t="shared" si="4"/>
-        <v>30.11051681085516</v>
+        <v>0.30110516810855109</v>
       </c>
       <c r="J133" s="10">
         <f t="shared" si="5"/>
-        <v>325.01126801482644</v>
+        <v>3.2501126801482587</v>
       </c>
       <c r="K133" s="11">
         <f>IF(MAX(J$1:J133)=J133,0,1-J133/MAX(J$1:J133))</f>
-        <v>0.10709203122309285</v>
+        <v>0.10709203122309319</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -6108,15 +6108,15 @@
       </c>
       <c r="I134" s="9">
         <f t="shared" si="4"/>
-        <v>16.127592137375231</v>
+        <v>0.16127592137375205</v>
       </c>
       <c r="J134" s="10">
         <f t="shared" si="5"/>
-        <v>341.13886015220169</v>
+        <v>3.411388601522011</v>
       </c>
       <c r="K134" s="11">
         <f>IF(MAX(J$1:J134)=J134,0,1-J134/MAX(J$1:J134))</f>
-        <v>6.2784473443313948E-2</v>
+        <v>6.278447344331417E-2</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6146,15 +6146,15 @@
       </c>
       <c r="I135" s="9">
         <f t="shared" si="4"/>
-        <v>20.675781561379257</v>
+        <v>0.2067578156137922</v>
       </c>
       <c r="J135" s="10">
         <f t="shared" si="5"/>
-        <v>361.81464171358095</v>
+        <v>3.6181464171358031</v>
       </c>
       <c r="K135" s="11">
         <f>IF(MAX(J$1:J135)=J135,0,1-J135/MAX(J$1:J135))</f>
-        <v>5.981611716058266E-3</v>
+        <v>5.9816117160587101E-3</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -6184,11 +6184,11 @@
       </c>
       <c r="I136" s="9">
         <f t="shared" si="4"/>
-        <v>48.906861407652116</v>
+        <v>0.4890686140765203</v>
       </c>
       <c r="J136" s="10">
         <f t="shared" si="5"/>
-        <v>410.72150312123307</v>
+        <v>4.1072150312123235</v>
       </c>
       <c r="K136" s="11">
         <f>IF(MAX(J$1:J136)=J136,0,1-J136/MAX(J$1:J136))</f>
@@ -6222,15 +6222,15 @@
       </c>
       <c r="I137" s="9">
         <f t="shared" si="4"/>
-        <v>-1.4158679160647332</v>
+        <v>-1.4158679160647307E-2</v>
       </c>
       <c r="J137" s="10">
         <f t="shared" si="5"/>
-        <v>409.30563520516836</v>
+        <v>4.0930563520516765</v>
       </c>
       <c r="K137" s="11">
         <f>IF(MAX(J$1:J137)=J137,0,1-J137/MAX(J$1:J137))</f>
-        <v>3.4472700000000023E-3</v>
+        <v>3.4472699999998913E-3</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -6260,11 +6260,11 @@
       </c>
       <c r="I138" s="9">
         <f t="shared" si="4"/>
-        <v>2.9063933614085076</v>
+        <v>2.9063933614085023E-2</v>
       </c>
       <c r="J138" s="10">
         <f t="shared" si="5"/>
-        <v>412.21202856657686</v>
+        <v>4.1221202856657619</v>
       </c>
       <c r="K138" s="11">
         <f>IF(MAX(J$1:J138)=J138,0,1-J138/MAX(J$1:J138))</f>
@@ -6298,15 +6298,15 @@
       </c>
       <c r="I139" s="9">
         <f t="shared" si="4"/>
-        <v>-16.631024062141396</v>
+        <v>-0.1663102406214137</v>
       </c>
       <c r="J139" s="10">
         <f t="shared" si="5"/>
-        <v>395.58100450443544</v>
+        <v>3.9558100450443483</v>
       </c>
       <c r="K139" s="11">
         <f>IF(MAX(J$1:J139)=J139,0,1-J139/MAX(J$1:J139))</f>
-        <v>4.0345800000000098E-2</v>
+        <v>4.0345799999999987E-2</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6336,15 +6336,15 @@
       </c>
       <c r="I140" s="9">
         <f t="shared" si="4"/>
-        <v>-7.4908999127480165</v>
+        <v>-7.4908999127480058E-2</v>
       </c>
       <c r="J140" s="10">
         <f t="shared" si="5"/>
-        <v>388.09010459168741</v>
+        <v>3.8809010459168682</v>
       </c>
       <c r="K140" s="11">
         <f>IF(MAX(J$1:J140)=J140,0,1-J140/MAX(J$1:J140))</f>
-        <v>5.8518243775590117E-2</v>
+        <v>5.8518243775590006E-2</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6374,15 +6374,15 @@
       </c>
       <c r="I141" s="9">
         <f t="shared" si="4"/>
-        <v>3.2772230073234585</v>
+        <v>3.2772230073234536E-2</v>
       </c>
       <c r="J141" s="10">
         <f t="shared" si="5"/>
-        <v>391.36732759901088</v>
+        <v>3.913673275990103</v>
       </c>
       <c r="K141" s="11">
         <f>IF(MAX(J$1:J141)=J141,0,1-J141/MAX(J$1:J141))</f>
-        <v>5.0567910499970559E-2</v>
+        <v>5.0567910499970448E-2</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6412,11 +6412,11 @@
       </c>
       <c r="I142" s="9">
         <f t="shared" si="4"/>
-        <v>8.9564178100637086</v>
+        <v>8.9564178100636951E-2</v>
       </c>
       <c r="J142" s="10">
         <f t="shared" si="5"/>
-        <v>400.3237454090746</v>
+        <v>4.0032374540907396</v>
       </c>
       <c r="K142" s="11">
         <f>IF(MAX(J$1:J142)=J142,0,1-J142/MAX(J$1:J142))</f>
@@ -6450,11 +6450,11 @@
       </c>
       <c r="I143" s="9">
         <f t="shared" si="4"/>
-        <v>-22.538166817969088</v>
+        <v>-0.22538166817969052</v>
       </c>
       <c r="J143" s="10">
         <f t="shared" si="5"/>
-        <v>377.78557859110549</v>
+        <v>3.7778557859110489</v>
       </c>
       <c r="K143" s="11">
         <f>IF(MAX(J$1:J143)=J143,0,1-J143/MAX(J$1:J143))</f>
@@ -6488,15 +6488,15 @@
       </c>
       <c r="I144" s="9">
         <f t="shared" si="4"/>
-        <v>9.7488399683707669</v>
+        <v>9.7488399683707511E-2</v>
       </c>
       <c r="J144" s="10">
         <f t="shared" si="5"/>
-        <v>387.53441855947625</v>
+        <v>3.8753441855947566</v>
       </c>
       <c r="K144" s="11">
         <f>IF(MAX(J$1:J144)=J144,0,1-J144/MAX(J$1:J144))</f>
-        <v>5.9866302526188631E-2</v>
+        <v>5.986630252618852E-2</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6526,15 +6526,15 @@
       </c>
       <c r="I145" s="9">
         <f t="shared" si="4"/>
-        <v>-8.3792149432743965</v>
+        <v>-8.3792149432743837E-2</v>
       </c>
       <c r="J145" s="10">
         <f t="shared" si="5"/>
-        <v>379.15520361620185</v>
+        <v>3.7915520361620128</v>
       </c>
       <c r="K145" s="11">
         <f>IF(MAX(J$1:J145)=J145,0,1-J145/MAX(J$1:J145))</f>
-        <v>8.0193741714249756E-2</v>
+        <v>8.0193741714249644E-2</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6564,11 +6564,11 @@
       </c>
       <c r="I146" s="9">
         <f t="shared" ref="I146:I209" si="6">IF(P$1,H146*J145*P$3,H146*P$2*P$3)</f>
-        <v>0.3349836223949143</v>
+        <v>3.349836223949138E-3</v>
       </c>
       <c r="J146" s="10">
         <f t="shared" ref="J146:J209" si="7">I146+J145</f>
-        <v>379.49018723859677</v>
+        <v>3.794901872385962</v>
       </c>
       <c r="K146" s="11">
         <f>IF(MAX(J$1:J146)=J146,0,1-J146/MAX(J$1:J146))</f>
@@ -6602,15 +6602,15 @@
       </c>
       <c r="I147" s="9">
         <f t="shared" si="6"/>
-        <v>27.714339144618979</v>
+        <v>0.27714339144618938</v>
       </c>
       <c r="J147" s="10">
         <f t="shared" si="7"/>
-        <v>407.20452638321575</v>
+        <v>4.0720452638321518</v>
       </c>
       <c r="K147" s="11">
         <f>IF(MAX(J$1:J147)=J147,0,1-J147/MAX(J$1:J147))</f>
-        <v>1.2147879819941587E-2</v>
+        <v>1.2147879819941365E-2</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6640,15 +6640,15 @@
       </c>
       <c r="I148" s="9">
         <f t="shared" si="6"/>
-        <v>-6.9237229943654004</v>
+        <v>-6.9237229943653902E-2</v>
       </c>
       <c r="J148" s="10">
         <f t="shared" si="7"/>
-        <v>400.28080338885036</v>
+        <v>4.0028080338884982</v>
       </c>
       <c r="K148" s="11">
         <f>IF(MAX(J$1:J148)=J148,0,1-J148/MAX(J$1:J148))</f>
-        <v>2.8944388690490319E-2</v>
+        <v>2.8944388690490097E-2</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6678,15 +6678,15 @@
       </c>
       <c r="I149" s="9">
         <f t="shared" si="6"/>
-        <v>-14.494632216442202</v>
+        <v>-0.14494632216442183</v>
       </c>
       <c r="J149" s="10">
         <f t="shared" si="7"/>
-        <v>385.78617117240816</v>
+        <v>3.8578617117240763</v>
       </c>
       <c r="K149" s="11">
         <f>IF(MAX(J$1:J149)=J149,0,1-J149/MAX(J$1:J149))</f>
-        <v>6.4107438800516836E-2</v>
+        <v>6.4107438800516503E-2</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6716,15 +6716,15 @@
       </c>
       <c r="I150" s="9">
         <f t="shared" si="6"/>
-        <v>10.803478780277883</v>
+        <v>0.10803478780277868</v>
       </c>
       <c r="J150" s="10">
         <f t="shared" si="7"/>
-        <v>396.58964995268605</v>
+        <v>3.9658964995268549</v>
       </c>
       <c r="K150" s="11">
         <f>IF(MAX(J$1:J150)=J150,0,1-J150/MAX(J$1:J150))</f>
-        <v>3.7898890695198695E-2</v>
+        <v>3.7898890695198473E-2</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6754,15 +6754,15 @@
       </c>
       <c r="I151" s="9">
         <f t="shared" si="6"/>
-        <v>6.1984305136950146</v>
+        <v>6.1984305136950059E-2</v>
       </c>
       <c r="J151" s="10">
         <f t="shared" si="7"/>
-        <v>402.78808046638107</v>
+        <v>4.0278808046638046</v>
       </c>
       <c r="K151" s="11">
         <f>IF(MAX(J$1:J151)=J151,0,1-J151/MAX(J$1:J151))</f>
-        <v>2.2861894964507856E-2</v>
+        <v>2.2861894964507745E-2</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6792,15 +6792,15 @@
       </c>
       <c r="I152" s="9">
         <f t="shared" si="6"/>
-        <v>-16.165005419979568</v>
+        <v>-0.16165005419979545</v>
       </c>
       <c r="J152" s="10">
         <f t="shared" si="7"/>
-        <v>386.62307504640148</v>
+        <v>3.866230750464009</v>
       </c>
       <c r="K152" s="11">
         <f>IF(MAX(J$1:J152)=J152,0,1-J152/MAX(J$1:J152))</f>
-        <v>6.2077163563514226E-2</v>
+        <v>6.2077163563514115E-2</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -6830,11 +6830,11 @@
       </c>
       <c r="I153" s="9">
         <f t="shared" si="6"/>
-        <v>-10.296913026557059</v>
+        <v>-0.10296913026557042</v>
       </c>
       <c r="J153" s="10">
         <f t="shared" si="7"/>
-        <v>376.32616201984445</v>
+        <v>3.7632616201984384</v>
       </c>
       <c r="K153" s="11">
         <f>IF(MAX(J$1:J153)=J153,0,1-J153/MAX(J$1:J153))</f>
@@ -6868,11 +6868,11 @@
       </c>
       <c r="I154" s="9">
         <f t="shared" si="6"/>
-        <v>-4.3829842540278641</v>
+        <v>-4.3829842540278566E-2</v>
       </c>
       <c r="J154" s="10">
         <f t="shared" si="7"/>
-        <v>371.94317776581659</v>
+        <v>3.7194317776581598</v>
       </c>
       <c r="K154" s="11">
         <f>IF(MAX(J$1:J154)=J154,0,1-J154/MAX(J$1:J154))</f>
@@ -6906,11 +6906,11 @@
       </c>
       <c r="I155" s="9">
         <f t="shared" si="6"/>
-        <v>9.5695958406244763</v>
+        <v>9.5695958406244605E-2</v>
       </c>
       <c r="J155" s="10">
         <f t="shared" si="7"/>
-        <v>381.51277360644104</v>
+        <v>3.8151277360644045</v>
       </c>
       <c r="K155" s="11">
         <f>IF(MAX(J$1:J155)=J155,0,1-J155/MAX(J$1:J155))</f>
@@ -6944,11 +6944,11 @@
       </c>
       <c r="I156" s="9">
         <f t="shared" si="6"/>
-        <v>74.671732588974649</v>
+        <v>0.74671732588974526</v>
       </c>
       <c r="J156" s="10">
         <f t="shared" si="7"/>
-        <v>456.18450619541568</v>
+        <v>4.5618450619541502</v>
       </c>
       <c r="K156" s="11">
         <f>IF(MAX(J$1:J156)=J156,0,1-J156/MAX(J$1:J156))</f>
@@ -6982,11 +6982,11 @@
       </c>
       <c r="I157" s="9">
         <f t="shared" si="6"/>
-        <v>16.718965992724321</v>
+        <v>0.16718965992724297</v>
       </c>
       <c r="J157" s="10">
         <f t="shared" si="7"/>
-        <v>472.90347218813997</v>
+        <v>4.7290347218813933</v>
       </c>
       <c r="K157" s="11">
         <f>IF(MAX(J$1:J157)=J157,0,1-J157/MAX(J$1:J157))</f>
@@ -7020,11 +7020,11 @@
       </c>
       <c r="I158" s="9">
         <f t="shared" si="6"/>
-        <v>-10.671114140272598</v>
+        <v>-0.10671114140272583</v>
       </c>
       <c r="J158" s="10">
         <f t="shared" si="7"/>
-        <v>462.23235804786736</v>
+        <v>4.6223235804786675</v>
       </c>
       <c r="K158" s="11">
         <f>IF(MAX(J$1:J158)=J158,0,1-J158/MAX(J$1:J158))</f>
@@ -7058,11 +7058,11 @@
       </c>
       <c r="I159" s="9">
         <f t="shared" si="6"/>
-        <v>-12.783174531521187</v>
+        <v>-0.12783174531521169</v>
       </c>
       <c r="J159" s="10">
         <f t="shared" si="7"/>
-        <v>449.44918351634618</v>
+        <v>4.4944918351634557</v>
       </c>
       <c r="K159" s="11">
         <f>IF(MAX(J$1:J159)=J159,0,1-J159/MAX(J$1:J159))</f>
@@ -7096,15 +7096,15 @@
       </c>
       <c r="I160" s="9">
         <f t="shared" si="6"/>
-        <v>13.720281291301477</v>
+        <v>0.13720281291301459</v>
       </c>
       <c r="J160" s="10">
         <f t="shared" si="7"/>
-        <v>463.16946480764767</v>
+        <v>4.6316946480764702</v>
       </c>
       <c r="K160" s="11">
         <f>IF(MAX(J$1:J160)=J160,0,1-J160/MAX(J$1:J160))</f>
-        <v>2.0583497379396909E-2</v>
+        <v>2.058349737939702E-2</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -7134,11 +7134,11 @@
       </c>
       <c r="I161" s="9">
         <f t="shared" si="6"/>
-        <v>39.296260786767625</v>
+        <v>0.39296260786767573</v>
       </c>
       <c r="J161" s="10">
         <f t="shared" si="7"/>
-        <v>502.46572559441529</v>
+        <v>5.0246572559441463</v>
       </c>
       <c r="K161" s="11">
         <f>IF(MAX(J$1:J161)=J161,0,1-J161/MAX(J$1:J161))</f>
@@ -7172,11 +7172,11 @@
       </c>
       <c r="I162" s="9">
         <f t="shared" si="6"/>
-        <v>5.6552869141659361</v>
+        <v>5.6552869141659287E-2</v>
       </c>
       <c r="J162" s="10">
         <f t="shared" si="7"/>
-        <v>508.1210125085812</v>
+        <v>5.0812101250858053</v>
       </c>
       <c r="K162" s="11">
         <f>IF(MAX(J$1:J162)=J162,0,1-J162/MAX(J$1:J162))</f>
@@ -7210,11 +7210,11 @@
       </c>
       <c r="I163" s="9">
         <f t="shared" si="6"/>
-        <v>-15.076575429974989</v>
+        <v>-0.1507657542997497</v>
       </c>
       <c r="J163" s="10">
         <f t="shared" si="7"/>
-        <v>493.04443707860622</v>
+        <v>4.9304443707860557</v>
       </c>
       <c r="K163" s="11">
         <f>IF(MAX(J$1:J163)=J163,0,1-J163/MAX(J$1:J163))</f>
@@ -7248,11 +7248,11 @@
       </c>
       <c r="I164" s="9">
         <f t="shared" si="6"/>
-        <v>-3.0694333516997507</v>
+        <v>-3.0694333516997466E-2</v>
       </c>
       <c r="J164" s="10">
         <f t="shared" si="7"/>
-        <v>489.97500372690649</v>
+        <v>4.8997500372690581</v>
       </c>
       <c r="K164" s="11">
         <f>IF(MAX(J$1:J164)=J164,0,1-J164/MAX(J$1:J164))</f>
@@ -7286,15 +7286,15 @@
       </c>
       <c r="I165" s="9">
         <f t="shared" si="6"/>
-        <v>-3.3674218096136865</v>
+        <v>-3.367421809613682E-2</v>
       </c>
       <c r="J165" s="10">
         <f t="shared" si="7"/>
-        <v>486.6075819172928</v>
+        <v>4.866075819172921</v>
       </c>
       <c r="K165" s="11">
         <f>IF(MAX(J$1:J165)=J165,0,1-J165/MAX(J$1:J165))</f>
-        <v>4.2339187047347404E-2</v>
+        <v>4.2339187047347626E-2</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -7324,11 +7324,11 @@
       </c>
       <c r="I166" s="9">
         <f t="shared" si="6"/>
-        <v>100.83268205154098</v>
+        <v>1.0083268205154083</v>
       </c>
       <c r="J166" s="10">
         <f t="shared" si="7"/>
-        <v>587.44026396883373</v>
+        <v>5.8744026396883289</v>
       </c>
       <c r="K166" s="11">
         <f>IF(MAX(J$1:J166)=J166,0,1-J166/MAX(J$1:J166))</f>
@@ -7362,11 +7362,11 @@
       </c>
       <c r="I167" s="9">
         <f t="shared" si="6"/>
-        <v>45.778420852332211</v>
+        <v>0.45778420852332147</v>
       </c>
       <c r="J167" s="10">
         <f t="shared" si="7"/>
-        <v>633.21868482116599</v>
+        <v>6.3321868482116503</v>
       </c>
       <c r="K167" s="11">
         <f>IF(MAX(J$1:J167)=J167,0,1-J167/MAX(J$1:J167))</f>
@@ -7400,11 +7400,11 @@
       </c>
       <c r="I168" s="9">
         <f t="shared" si="6"/>
-        <v>-10.074680244549652</v>
+        <v>-0.10074680244549637</v>
       </c>
       <c r="J168" s="10">
         <f t="shared" si="7"/>
-        <v>623.14400457661634</v>
+        <v>6.2314400457661536</v>
       </c>
       <c r="K168" s="11">
         <f>IF(MAX(J$1:J168)=J168,0,1-J168/MAX(J$1:J168))</f>
@@ -7438,15 +7438,15 @@
       </c>
       <c r="I169" s="9">
         <f t="shared" si="6"/>
-        <v>7.3476405125239816</v>
+        <v>7.3476405125239702E-2</v>
       </c>
       <c r="J169" s="10">
         <f t="shared" si="7"/>
-        <v>630.49164508914032</v>
+        <v>6.3049164508913931</v>
       </c>
       <c r="K169" s="11">
         <f>IF(MAX(J$1:J169)=J169,0,1-J169/MAX(J$1:J169))</f>
-        <v>4.3066318120348335E-3</v>
+        <v>4.3066318120349445E-3</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7476,15 +7476,15 @@
       </c>
       <c r="I170" s="9">
         <f t="shared" si="6"/>
-        <v>-25.889020953658051</v>
+        <v>-0.2588902095365801</v>
       </c>
       <c r="J170" s="10">
         <f t="shared" si="7"/>
-        <v>604.6026241354823</v>
+        <v>6.0460262413548129</v>
       </c>
       <c r="K170" s="11">
         <f>IF(MAX(J$1:J170)=J170,0,1-J170/MAX(J$1:J170))</f>
-        <v>4.5191434446956391E-2</v>
+        <v>4.5191434446956613E-2</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7514,15 +7514,15 @@
       </c>
       <c r="I171" s="9">
         <f t="shared" si="6"/>
-        <v>7.6230777721760568</v>
+        <v>7.6230777721760443E-2</v>
       </c>
       <c r="J171" s="10">
         <f t="shared" si="7"/>
-        <v>612.22570190765839</v>
+        <v>6.1222570190765735</v>
       </c>
       <c r="K171" s="11">
         <f>IF(MAX(J$1:J171)=J171,0,1-J171/MAX(J$1:J171))</f>
-        <v>3.3152816580951705E-2</v>
+        <v>3.3152816580951927E-2</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7552,11 +7552,11 @@
       </c>
       <c r="I172" s="9">
         <f t="shared" si="6"/>
-        <v>87.123262168273826</v>
+        <v>0.87123262168273674</v>
       </c>
       <c r="J172" s="10">
         <f t="shared" si="7"/>
-        <v>699.34896407593226</v>
+        <v>6.9934896407593099</v>
       </c>
       <c r="K172" s="11">
         <f>IF(MAX(J$1:J172)=J172,0,1-J172/MAX(J$1:J172))</f>
@@ -7590,11 +7590,11 @@
       </c>
       <c r="I173" s="9">
         <f t="shared" si="6"/>
-        <v>-34.608584276370692</v>
+        <v>-0.34608584276370624</v>
       </c>
       <c r="J173" s="10">
         <f t="shared" si="7"/>
-        <v>664.74037979956154</v>
+        <v>6.6474037979956035</v>
       </c>
       <c r="K173" s="11">
         <f>IF(MAX(J$1:J173)=J173,0,1-J173/MAX(J$1:J173))</f>
@@ -7628,11 +7628,11 @@
       </c>
       <c r="I174" s="9">
         <f t="shared" si="6"/>
-        <v>-26.164573545734825</v>
+        <v>-0.26164573545734776</v>
       </c>
       <c r="J174" s="10">
         <f t="shared" si="7"/>
-        <v>638.57580625382673</v>
+        <v>6.3857580625382555</v>
       </c>
       <c r="K174" s="11">
         <f>IF(MAX(J$1:J174)=J174,0,1-J174/MAX(J$1:J174))</f>
@@ -7666,11 +7666,11 @@
       </c>
       <c r="I175" s="9">
         <f t="shared" si="6"/>
-        <v>77.045346004007698</v>
+        <v>0.77045346004007553</v>
       </c>
       <c r="J175" s="10">
         <f t="shared" si="7"/>
-        <v>715.62115225783441</v>
+        <v>7.1562115225783307</v>
       </c>
       <c r="K175" s="11">
         <f>IF(MAX(J$1:J175)=J175,0,1-J175/MAX(J$1:J175))</f>
@@ -7704,15 +7704,15 @@
       </c>
       <c r="I176" s="9">
         <f t="shared" si="6"/>
-        <v>-38.798452732752317</v>
+        <v>-0.38798452732752242</v>
       </c>
       <c r="J176" s="10">
         <f t="shared" si="7"/>
-        <v>676.82269952508204</v>
+        <v>6.7682269952508083</v>
       </c>
       <c r="K176" s="11">
         <f>IF(MAX(J$1:J176)=J176,0,1-J176/MAX(J$1:J176))</f>
-        <v>5.4216470000000072E-2</v>
+        <v>5.4216469999999961E-2</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7742,11 +7742,11 @@
       </c>
       <c r="I177" s="9">
         <f t="shared" si="6"/>
-        <v>-28.501139241541111</v>
+        <v>-0.28501139241541057</v>
       </c>
       <c r="J177" s="10">
         <f t="shared" si="7"/>
-        <v>648.32156028354098</v>
+        <v>6.483215602835398</v>
       </c>
       <c r="K177" s="11">
         <f>IF(MAX(J$1:J177)=J177,0,1-J177/MAX(J$1:J177))</f>
@@ -7780,11 +7780,11 @@
       </c>
       <c r="I178" s="9">
         <f t="shared" si="6"/>
-        <v>-1.1131227364976199</v>
+        <v>-1.113122736497618E-2</v>
       </c>
       <c r="J178" s="10">
         <f t="shared" si="7"/>
-        <v>647.20843754704333</v>
+        <v>6.4720843754704216</v>
       </c>
       <c r="K178" s="11">
         <f>IF(MAX(J$1:J178)=J178,0,1-J178/MAX(J$1:J178))</f>
@@ -7818,11 +7818,11 @@
       </c>
       <c r="I179" s="9">
         <f t="shared" si="6"/>
-        <v>108.7942821326735</v>
+        <v>1.087942821326733</v>
       </c>
       <c r="J179" s="10">
         <f t="shared" si="7"/>
-        <v>756.00271967971685</v>
+        <v>7.5600271967971544</v>
       </c>
       <c r="K179" s="11">
         <f>IF(MAX(J$1:J179)=J179,0,1-J179/MAX(J$1:J179))</f>
@@ -7856,11 +7856,11 @@
       </c>
       <c r="I180" s="9">
         <f t="shared" si="6"/>
-        <v>89.400171732379704</v>
+        <v>0.89400171732379541</v>
       </c>
       <c r="J180" s="10">
         <f t="shared" si="7"/>
-        <v>845.40289141209655</v>
+        <v>8.4540289141209506</v>
       </c>
       <c r="K180" s="11">
         <f>IF(MAX(J$1:J180)=J180,0,1-J180/MAX(J$1:J180))</f>
@@ -7894,15 +7894,15 @@
       </c>
       <c r="I181" s="9">
         <f t="shared" si="6"/>
-        <v>-20.335160523477199</v>
+        <v>-0.20335160523477164</v>
       </c>
       <c r="J181" s="10">
         <f t="shared" si="7"/>
-        <v>825.06773088861939</v>
+        <v>8.2506773088861785</v>
       </c>
       <c r="K181" s="11">
         <f>IF(MAX(J$1:J181)=J181,0,1-J181/MAX(J$1:J181))</f>
-        <v>2.4053809999999953E-2</v>
+        <v>2.4053810000000064E-2</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -7932,15 +7932,15 @@
       </c>
       <c r="I182" s="9">
         <f t="shared" si="6"/>
-        <v>-31.044311968152932</v>
+        <v>-0.31044311968152871</v>
       </c>
       <c r="J182" s="10">
         <f t="shared" si="7"/>
-        <v>794.0234189204665</v>
+        <v>7.9402341892046495</v>
       </c>
       <c r="K182" s="11">
         <f>IF(MAX(J$1:J182)=J182,0,1-J182/MAX(J$1:J182))</f>
-        <v>6.0775132204492155E-2</v>
+        <v>6.0775132204492266E-2</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -7970,15 +7970,15 @@
       </c>
       <c r="I183" s="9">
         <f t="shared" si="6"/>
-        <v>-36.477753474573795</v>
+        <v>-0.36477753474573726</v>
       </c>
       <c r="J183" s="10">
         <f t="shared" si="7"/>
-        <v>757.54566544589272</v>
+        <v>7.5754566544589119</v>
       </c>
       <c r="K183" s="11">
         <f>IF(MAX(J$1:J183)=J183,0,1-J183/MAX(J$1:J183))</f>
-        <v>0.10392349832096481</v>
+        <v>0.10392349832096504</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -8008,15 +8008,15 @@
       </c>
       <c r="I184" s="9">
         <f t="shared" si="6"/>
-        <v>10.532824026879839</v>
+        <v>0.10532824026879818</v>
       </c>
       <c r="J184" s="10">
         <f t="shared" si="7"/>
-        <v>768.07848947277262</v>
+        <v>7.6807848947277098</v>
       </c>
       <c r="K184" s="11">
         <f>IF(MAX(J$1:J184)=J184,0,1-J184/MAX(J$1:J184))</f>
-        <v>9.1464558170799681E-2</v>
+        <v>9.1464558170800014E-2</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,15 +8046,15 @@
       </c>
       <c r="I185" s="9">
         <f t="shared" si="6"/>
-        <v>-8.611365750218253</v>
+        <v>-8.6113657502182347E-2</v>
       </c>
       <c r="J185" s="10">
         <f t="shared" si="7"/>
-        <v>759.46712372255433</v>
+        <v>7.5946712372255272</v>
       </c>
       <c r="K185" s="11">
         <f>IF(MAX(J$1:J185)=J185,0,1-J185/MAX(J$1:J185))</f>
-        <v>0.10165066687434865</v>
+        <v>0.10165066687434898</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -8084,15 +8084,15 @@
       </c>
       <c r="I186" s="9">
         <f t="shared" si="6"/>
-        <v>3.1353536948912444</v>
+        <v>3.1353536948912381E-2</v>
       </c>
       <c r="J186" s="10">
         <f t="shared" si="7"/>
-        <v>762.60247741744558</v>
+        <v>7.6260247741744394</v>
       </c>
       <c r="K186" s="11">
         <f>IF(MAX(J$1:J186)=J186,0,1-J186/MAX(J$1:J186))</f>
-        <v>9.7941957421446069E-2</v>
+        <v>9.7941957421446402E-2</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -8122,15 +8122,15 @@
       </c>
       <c r="I187" s="9">
         <f t="shared" si="6"/>
-        <v>-22.092105705197852</v>
+        <v>-0.22092105705197804</v>
       </c>
       <c r="J187" s="10">
         <f t="shared" si="7"/>
-        <v>740.51037171224777</v>
+        <v>7.4051037171224614</v>
       </c>
       <c r="K187" s="11">
         <f>IF(MAX(J$1:J187)=J187,0,1-J187/MAX(J$1:J187))</f>
-        <v>0.12407400159779947</v>
+        <v>0.12407400159779991</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -8160,15 +8160,15 @@
       </c>
       <c r="I188" s="9">
         <f t="shared" si="6"/>
-        <v>15.648546631164107</v>
+        <v>0.15648546631164073</v>
       </c>
       <c r="J188" s="10">
         <f t="shared" si="7"/>
-        <v>756.15891834341187</v>
+        <v>7.5615891834341022</v>
       </c>
       <c r="K188" s="11">
         <f>IF(MAX(J$1:J188)=J188,0,1-J188/MAX(J$1:J188))</f>
-        <v>0.10556383704770433</v>
+        <v>0.10556383704770478</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -8198,15 +8198,15 @@
       </c>
       <c r="I189" s="9">
         <f t="shared" si="6"/>
-        <v>17.052495162253901</v>
+        <v>0.17052495162253867</v>
       </c>
       <c r="J189" s="10">
         <f t="shared" si="7"/>
-        <v>773.21141350566575</v>
+        <v>7.7321141350566407</v>
       </c>
       <c r="K189" s="11">
         <f>IF(MAX(J$1:J189)=J189,0,1-J189/MAX(J$1:J189))</f>
-        <v>8.5392986751970601E-2</v>
+        <v>8.5392986751970934E-2</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -8236,15 +8236,15 @@
       </c>
       <c r="I190" s="9">
         <f t="shared" si="6"/>
-        <v>-24.184800411967345</v>
+        <v>-0.24184800411967294</v>
       </c>
       <c r="J190" s="10">
         <f t="shared" si="7"/>
-        <v>749.02661309369842</v>
+        <v>7.490266130936968</v>
       </c>
       <c r="K190" s="11">
         <f>IF(MAX(J$1:J190)=J190,0,1-J190/MAX(J$1:J190))</f>
-        <v>0.11400041246300752</v>
+        <v>0.11400041246300785</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -8274,15 +8274,15 @@
       </c>
       <c r="I191" s="9">
         <f t="shared" si="6"/>
-        <v>-6.2037754716179023</v>
+        <v>-6.2037754716178894E-2</v>
       </c>
       <c r="J191" s="10">
         <f t="shared" si="7"/>
-        <v>742.82283762208056</v>
+        <v>7.4282283762207895</v>
       </c>
       <c r="K191" s="11">
         <f>IF(MAX(J$1:J191)=J191,0,1-J191/MAX(J$1:J191))</f>
-        <v>0.12133865974680325</v>
+        <v>0.12133865974680358</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -8312,15 +8312,15 @@
       </c>
       <c r="I192" s="9">
         <f t="shared" si="6"/>
-        <v>0.3016529261299507</v>
+        <v>3.0165292612995003E-3</v>
       </c>
       <c r="J192" s="10">
         <f t="shared" si="7"/>
-        <v>743.12449054821047</v>
+        <v>7.4312449054820888</v>
       </c>
       <c r="K192" s="11">
         <f>IF(MAX(J$1:J192)=J192,0,1-J192/MAX(J$1:J192))</f>
-        <v>0.12098184416313984</v>
+        <v>0.12098184416314017</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -8350,15 +8350,15 @@
       </c>
       <c r="I193" s="9">
         <f t="shared" si="6"/>
-        <v>-9.9881282026011426</v>
+        <v>-9.9881282026011223E-2</v>
       </c>
       <c r="J193" s="10">
         <f t="shared" si="7"/>
-        <v>733.13636234560931</v>
+        <v>7.3313636234560775</v>
       </c>
       <c r="K193" s="11">
         <f>IF(MAX(J$1:J193)=J193,0,1-J193/MAX(J$1:J193))</f>
-        <v>0.13279648107065944</v>
+        <v>0.13279648107065978</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -8388,15 +8388,15 @@
       </c>
       <c r="I194" s="9">
         <f t="shared" si="6"/>
-        <v>-34.000232526048542</v>
+        <v>-0.34000232526048468</v>
       </c>
       <c r="J194" s="10">
         <f t="shared" si="7"/>
-        <v>699.13612981956078</v>
+        <v>6.991361298195593</v>
       </c>
       <c r="K194" s="11">
         <f>IF(MAX(J$1:J194)=J194,0,1-J194/MAX(J$1:J194))</f>
-        <v>0.17301426701796929</v>
+        <v>0.17301426701796963</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -8426,15 +8426,15 @@
       </c>
       <c r="I195" s="9">
         <f t="shared" si="6"/>
-        <v>-5.098792803412759</v>
+        <v>-5.098792803412748E-2</v>
       </c>
       <c r="J195" s="10">
         <f t="shared" si="7"/>
-        <v>694.03733701614806</v>
+        <v>6.9403733701614652</v>
       </c>
       <c r="K195" s="11">
         <f>IF(MAX(J$1:J195)=J195,0,1-J195/MAX(J$1:J195))</f>
-        <v>0.17904546569874991</v>
+        <v>0.17904546569875024</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8464,11 +8464,11 @@
       </c>
       <c r="I196" s="9">
         <f t="shared" si="6"/>
-        <v>220.09659744161931</v>
+        <v>2.2009659744161882</v>
       </c>
       <c r="J196" s="10">
         <f t="shared" si="7"/>
-        <v>914.1339344577674</v>
+        <v>9.1413393445776538</v>
       </c>
       <c r="K196" s="11">
         <f>IF(MAX(J$1:J196)=J196,0,1-J196/MAX(J$1:J196))</f>
@@ -8502,15 +8502,15 @@
       </c>
       <c r="I197" s="9">
         <f t="shared" si="6"/>
-        <v>-66.358965972927109</v>
+        <v>-0.66358965972926964</v>
       </c>
       <c r="J197" s="10">
         <f t="shared" si="7"/>
-        <v>847.77496848484031</v>
+        <v>8.4777496848483835</v>
       </c>
       <c r="K197" s="11">
         <f>IF(MAX(J$1:J197)=J197,0,1-J197/MAX(J$1:J197))</f>
-        <v>7.2592169999999956E-2</v>
+        <v>7.2592170000000067E-2</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8540,15 +8540,15 @@
       </c>
       <c r="I198" s="9">
         <f t="shared" si="6"/>
-        <v>-33.339920565122853</v>
+        <v>-0.33339920565122777</v>
       </c>
       <c r="J198" s="10">
         <f t="shared" si="7"/>
-        <v>814.43504791971748</v>
+        <v>8.1443504791971559</v>
       </c>
       <c r="K198" s="11">
         <f>IF(MAX(J$1:J198)=J198,0,1-J198/MAX(J$1:J198))</f>
-        <v>0.10906376273755536</v>
+        <v>0.10906376273755547</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8578,11 +8578,11 @@
       </c>
       <c r="I199" s="9">
         <f t="shared" si="6"/>
-        <v>-16.973518668437645</v>
+        <v>-0.16973518668437607</v>
       </c>
       <c r="J199" s="10">
         <f t="shared" si="7"/>
-        <v>797.46152925127979</v>
+        <v>7.9746152925127802</v>
       </c>
       <c r="K199" s="11">
         <f>IF(MAX(J$1:J199)=J199,0,1-J199/MAX(J$1:J199))</f>
@@ -8616,11 +8616,11 @@
       </c>
       <c r="I200" s="9">
         <f t="shared" si="6"/>
-        <v>-15.370791864783181</v>
+        <v>-0.15370791864783145</v>
       </c>
       <c r="J200" s="10">
         <f t="shared" si="7"/>
-        <v>782.09073738649658</v>
+        <v>7.8209073738649488</v>
       </c>
       <c r="K200" s="11">
         <f>IF(MAX(J$1:J200)=J200,0,1-J200/MAX(J$1:J200))</f>
@@ -8654,11 +8654,11 @@
       </c>
       <c r="I201" s="9">
         <f t="shared" si="6"/>
-        <v>-32.719915671948044</v>
+        <v>-0.32719915671947974</v>
       </c>
       <c r="J201" s="10">
         <f t="shared" si="7"/>
-        <v>749.37082171454858</v>
+        <v>7.4937082171454694</v>
       </c>
       <c r="K201" s="11">
         <f>IF(MAX(J$1:J201)=J201,0,1-J201/MAX(J$1:J201))</f>
@@ -8692,15 +8692,15 @@
       </c>
       <c r="I202" s="9">
         <f t="shared" si="6"/>
-        <v>-1.3925932665332312</v>
+        <v>-1.3925932665332283E-2</v>
       </c>
       <c r="J202" s="10">
         <f t="shared" si="7"/>
-        <v>747.97822844801533</v>
+        <v>7.4797822844801374</v>
       </c>
       <c r="K202" s="11">
         <f>IF(MAX(J$1:J202)=J202,0,1-J202/MAX(J$1:J202))</f>
-        <v>0.18176297777229977</v>
+        <v>0.18176297777229966</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8730,11 +8730,11 @@
       </c>
       <c r="I203" s="9">
         <f t="shared" si="6"/>
-        <v>1.1782452245804518</v>
+        <v>1.1782452245804492E-2</v>
       </c>
       <c r="J203" s="10">
         <f t="shared" si="7"/>
-        <v>749.15647367259578</v>
+        <v>7.4915647367259419</v>
       </c>
       <c r="K203" s="11">
         <f>IF(MAX(J$1:J203)=J203,0,1-J203/MAX(J$1:J203))</f>
@@ -8768,15 +8768,15 @@
       </c>
       <c r="I204" s="9">
         <f t="shared" si="6"/>
-        <v>13.500878440902264</v>
+        <v>0.13500878440902236</v>
       </c>
       <c r="J204" s="10">
         <f t="shared" si="7"/>
-        <v>762.65735211349806</v>
+        <v>7.6265735211349641</v>
       </c>
       <c r="K204" s="11">
         <f>IF(MAX(J$1:J204)=J204,0,1-J204/MAX(J$1:J204))</f>
-        <v>0.16570502049474845</v>
+        <v>0.16570502049474833</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8806,11 +8806,11 @@
       </c>
       <c r="I205" s="9">
         <f t="shared" si="6"/>
-        <v>-20.714322796696127</v>
+        <v>-0.20714322796696083</v>
       </c>
       <c r="J205" s="10">
         <f t="shared" si="7"/>
-        <v>741.94302931680193</v>
+        <v>7.419430293168003</v>
       </c>
       <c r="K205" s="11">
         <f>IF(MAX(J$1:J205)=J205,0,1-J205/MAX(J$1:J205))</f>
@@ -8844,11 +8844,11 @@
       </c>
       <c r="I206" s="9">
         <f t="shared" si="6"/>
-        <v>-2.836811753162499</v>
+        <v>-2.836811753162493E-2</v>
       </c>
       <c r="J206" s="10">
         <f t="shared" si="7"/>
-        <v>739.10621756363946</v>
+        <v>7.3910621756363781</v>
       </c>
       <c r="K206" s="11">
         <f>IF(MAX(J$1:J206)=J206,0,1-J206/MAX(J$1:J206))</f>
@@ -8882,11 +8882,11 @@
       </c>
       <c r="I207" s="9">
         <f t="shared" si="6"/>
-        <v>65.093232402073241</v>
+        <v>0.65093232402073098</v>
       </c>
       <c r="J207" s="10">
         <f t="shared" si="7"/>
-        <v>804.19944996571269</v>
+        <v>8.0419944996571093</v>
       </c>
       <c r="K207" s="11">
         <f>IF(MAX(J$1:J207)=J207,0,1-J207/MAX(J$1:J207))</f>
@@ -8920,11 +8920,11 @@
       </c>
       <c r="I208" s="9">
         <f t="shared" si="6"/>
-        <v>-17.851000156762414</v>
+        <v>-0.17851000156762376</v>
       </c>
       <c r="J208" s="10">
         <f t="shared" si="7"/>
-        <v>786.34844980895025</v>
+        <v>7.8634844980894858</v>
       </c>
       <c r="K208" s="11">
         <f>IF(MAX(J$1:J208)=J208,0,1-J208/MAX(J$1:J208))</f>
@@ -8958,15 +8958,15 @@
       </c>
       <c r="I209" s="9">
         <f t="shared" si="6"/>
-        <v>63.298085675964714</v>
+        <v>0.63298085675964577</v>
       </c>
       <c r="J209" s="10">
         <f t="shared" si="7"/>
-        <v>849.64653548491492</v>
+        <v>8.496465354849132</v>
       </c>
       <c r="K209" s="11">
         <f>IF(MAX(J$1:J209)=J209,0,1-J209/MAX(J$1:J209))</f>
-        <v>7.0544803712055737E-2</v>
+        <v>7.0544803712055626E-2</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8995,12 +8995,12 @@
         <v>9.1094809999999998E-2</v>
       </c>
       <c r="I210" s="9">
-        <f t="shared" ref="I210:I246" si="8">IF(P$1,H210*J209*P$3,H210*P$2*P$3)</f>
-        <v>77.398389717156576</v>
+        <f t="shared" ref="I210:I245" si="8">IF(P$1,H210*J209*P$3,H210*P$2*P$3)</f>
+        <v>0.77398389717156424</v>
       </c>
       <c r="J210" s="10">
         <f t="shared" ref="J210:J246" si="9">I210+J209</f>
-        <v>927.04492520207145</v>
+        <v>9.2704492520206969</v>
       </c>
       <c r="K210" s="11">
         <f>IF(MAX(J$1:J210)=J210,0,1-J210/MAX(J$1:J210))</f>
@@ -9034,15 +9034,15 @@
       </c>
       <c r="I211" s="9">
         <f t="shared" si="8"/>
-        <v>-35.093980927218318</v>
+        <v>-0.35093980927218249</v>
       </c>
       <c r="J211" s="10">
         <f t="shared" si="9"/>
-        <v>891.9509442748531</v>
+        <v>8.9195094427485149</v>
       </c>
       <c r="K211" s="11">
         <f>IF(MAX(J$1:J211)=J211,0,1-J211/MAX(J$1:J211))</f>
-        <v>3.7855750000000077E-2</v>
+        <v>3.7855749999999966E-2</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -9072,15 +9072,15 @@
       </c>
       <c r="I212" s="9">
         <f t="shared" si="8"/>
-        <v>-26.708730707026728</v>
+        <v>-0.26708730707026679</v>
       </c>
       <c r="J212" s="10">
         <f t="shared" si="9"/>
-        <v>865.24221356782641</v>
+        <v>8.6524221356782487</v>
       </c>
       <c r="K212" s="11">
         <f>IF(MAX(J$1:J212)=J212,0,1-J212/MAX(J$1:J212))</f>
-        <v>6.6666360986522455E-2</v>
+        <v>6.6666360986522344E-2</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -9110,11 +9110,11 @@
       </c>
       <c r="I213" s="9">
         <f t="shared" si="8"/>
-        <v>24.315261648658584</v>
+        <v>0.24315261648658543</v>
       </c>
       <c r="J213" s="10">
         <f t="shared" si="9"/>
-        <v>889.55747521648505</v>
+        <v>8.8955747521648334</v>
       </c>
       <c r="K213" s="11">
         <f>IF(MAX(J$1:J213)=J213,0,1-J213/MAX(J$1:J213))</f>
@@ -9148,11 +9148,11 @@
       </c>
       <c r="I214" s="9">
         <f t="shared" si="8"/>
-        <v>123.42498773944328</v>
+        <v>1.2342498773944304</v>
       </c>
       <c r="J214" s="10">
         <f t="shared" si="9"/>
-        <v>1012.9824629559283</v>
+        <v>10.129824629559264</v>
       </c>
       <c r="K214" s="11">
         <f>IF(MAX(J$1:J214)=J214,0,1-J214/MAX(J$1:J214))</f>
@@ -9186,11 +9186,11 @@
       </c>
       <c r="I215" s="9">
         <f t="shared" si="8"/>
-        <v>-41.535552914548411</v>
+        <v>-0.41535552914548335</v>
       </c>
       <c r="J215" s="10">
         <f t="shared" si="9"/>
-        <v>971.44691004137997</v>
+        <v>9.7144691004137815</v>
       </c>
       <c r="K215" s="11">
         <f>IF(MAX(J$1:J215)=J215,0,1-J215/MAX(J$1:J215))</f>
@@ -9224,11 +9224,11 @@
       </c>
       <c r="I216" s="9">
         <f t="shared" si="8"/>
-        <v>0.70086980218755435</v>
+        <v>7.0086980218755307E-3</v>
       </c>
       <c r="J216" s="10">
         <f t="shared" si="9"/>
-        <v>972.14777984356749</v>
+        <v>9.7214777984356573</v>
       </c>
       <c r="K216" s="11">
         <f>IF(MAX(J$1:J216)=J216,0,1-J216/MAX(J$1:J216))</f>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="I217" s="9">
         <f t="shared" si="8"/>
-        <v>125.09903857577677</v>
+        <v>1.2509903857577653</v>
       </c>
       <c r="J217" s="10">
         <f t="shared" si="9"/>
-        <v>1097.2468184193442</v>
+        <v>10.972468184193422</v>
       </c>
       <c r="K217" s="11">
         <f>IF(MAX(J$1:J217)=J217,0,1-J217/MAX(J$1:J217))</f>
@@ -9300,15 +9300,15 @@
       </c>
       <c r="I218" s="9">
         <f t="shared" si="8"/>
-        <v>-43.487973172123127</v>
+        <v>-0.43487973172123051</v>
       </c>
       <c r="J218" s="10">
         <f t="shared" si="9"/>
-        <v>1053.7588452472212</v>
+        <v>10.537588452472193</v>
       </c>
       <c r="K218" s="11">
         <f>IF(MAX(J$1:J218)=J218,0,1-J218/MAX(J$1:J218))</f>
-        <v>3.9633719999999872E-2</v>
+        <v>3.9633719999999983E-2</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -9338,15 +9338,15 @@
       </c>
       <c r="I219" s="9">
         <f t="shared" si="8"/>
-        <v>-16.215388636902574</v>
+        <v>-0.16215388636902545</v>
       </c>
       <c r="J219" s="10">
         <f t="shared" si="9"/>
-        <v>1037.5434566103186</v>
+        <v>10.375434566103166</v>
       </c>
       <c r="K219" s="11">
         <f>IF(MAX(J$1:J219)=J219,0,1-J219/MAX(J$1:J219))</f>
-        <v>5.4411970767919149E-2</v>
+        <v>5.441197076791926E-2</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -9376,11 +9376,11 @@
       </c>
       <c r="I220" s="9">
         <f t="shared" si="8"/>
-        <v>35.605876821355473</v>
+        <v>0.35605876821355409</v>
       </c>
       <c r="J220" s="10">
         <f t="shared" si="9"/>
-        <v>1073.149333431674</v>
+        <v>10.73149333431672</v>
       </c>
       <c r="K220" s="11">
         <f>IF(MAX(J$1:J220)=J220,0,1-J220/MAX(J$1:J220))</f>
@@ -9414,11 +9414,11 @@
       </c>
       <c r="I221" s="9">
         <f t="shared" si="8"/>
-        <v>11.857945995139964</v>
+        <v>0.11857945995139943</v>
       </c>
       <c r="J221" s="10">
         <f t="shared" si="9"/>
-        <v>1085.007279426814</v>
+        <v>10.850072794268121</v>
       </c>
       <c r="K221" s="11">
         <f>IF(MAX(J$1:J221)=J221,0,1-J221/MAX(J$1:J221))</f>
@@ -9452,15 +9452,15 @@
       </c>
       <c r="I222" s="9">
         <f t="shared" si="8"/>
-        <v>-20.797484632489937</v>
+        <v>-0.20797484632489899</v>
       </c>
       <c r="J222" s="10">
         <f t="shared" si="9"/>
-        <v>1064.2097947943241</v>
+        <v>10.642097947943222</v>
       </c>
       <c r="K222" s="11">
         <f>IF(MAX(J$1:J222)=J222,0,1-J222/MAX(J$1:J222))</f>
-        <v>3.0109017470300925E-2</v>
+        <v>3.0109017470300814E-2</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -9490,11 +9490,11 @@
       </c>
       <c r="I223" s="9">
         <f t="shared" si="8"/>
-        <v>16.34931673015188</v>
+        <v>0.1634931673015185</v>
       </c>
       <c r="J223" s="10">
         <f t="shared" si="9"/>
-        <v>1080.5591115244761</v>
+        <v>10.805591115244741</v>
       </c>
       <c r="K223" s="11">
         <f>IF(MAX(J$1:J223)=J223,0,1-J223/MAX(J$1:J223))</f>
@@ -9528,11 +9528,11 @@
       </c>
       <c r="I224" s="9">
         <f t="shared" si="8"/>
-        <v>186.18656974174073</v>
+        <v>1.8618656974174039</v>
       </c>
       <c r="J224" s="10">
         <f t="shared" si="9"/>
-        <v>1266.7456812662167</v>
+        <v>12.667456812662145</v>
       </c>
       <c r="K224" s="11">
         <f>IF(MAX(J$1:J224)=J224,0,1-J224/MAX(J$1:J224))</f>
@@ -9566,11 +9566,11 @@
       </c>
       <c r="I225" s="9">
         <f t="shared" si="8"/>
-        <v>-42.530732899376972</v>
+        <v>-0.425307328993769</v>
       </c>
       <c r="J225" s="10">
         <f t="shared" si="9"/>
-        <v>1224.2149483668397</v>
+        <v>12.242149483668376</v>
       </c>
       <c r="K225" s="11">
         <f>IF(MAX(J$1:J225)=J225,0,1-J225/MAX(J$1:J225))</f>
@@ -9604,15 +9604,15 @@
       </c>
       <c r="I226" s="9">
         <f t="shared" si="8"/>
-        <v>-11.365060683910976</v>
+        <v>-0.11365060683910955</v>
       </c>
       <c r="J226" s="10">
         <f t="shared" si="9"/>
-        <v>1212.8498876829287</v>
+        <v>12.128498876829266</v>
       </c>
       <c r="K226" s="11">
         <f>IF(MAX(J$1:J226)=J226,0,1-J226/MAX(J$1:J226))</f>
-        <v>4.2546656665459981E-2</v>
+        <v>4.2546656665460092E-2</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -9642,11 +9642,11 @@
       </c>
       <c r="I227" s="9">
         <f t="shared" si="8"/>
-        <v>86.172414480424877</v>
+        <v>0.86172414480424719</v>
       </c>
       <c r="J227" s="10">
         <f t="shared" si="9"/>
-        <v>1299.0223021633535</v>
+        <v>12.990223021633513</v>
       </c>
       <c r="K227" s="11">
         <f>IF(MAX(J$1:J227)=J227,0,1-J227/MAX(J$1:J227))</f>
@@ -9680,11 +9680,11 @@
       </c>
       <c r="I228" s="9">
         <f t="shared" si="8"/>
-        <v>-55.61758790623189</v>
+        <v>-0.55617587906231802</v>
       </c>
       <c r="J228" s="10">
         <f t="shared" si="9"/>
-        <v>1243.4047142571217</v>
+        <v>12.434047142571195</v>
       </c>
       <c r="K228" s="11">
         <f>IF(MAX(J$1:J228)=J228,0,1-J228/MAX(J$1:J228))</f>
@@ -9718,15 +9718,15 @@
       </c>
       <c r="I229" s="9">
         <f t="shared" si="8"/>
-        <v>0.17410152809028218</v>
+        <v>1.7410152809028189E-3</v>
       </c>
       <c r="J229" s="10">
         <f t="shared" si="9"/>
-        <v>1243.5788157852119</v>
+        <v>12.435788157852098</v>
       </c>
       <c r="K229" s="11">
         <f>IF(MAX(J$1:J229)=J229,0,1-J229/MAX(J$1:J229))</f>
-        <v>4.2680934950699245E-2</v>
+        <v>4.2680934950699134E-2</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -9756,11 +9756,11 @@
       </c>
       <c r="I230" s="9">
         <f t="shared" si="8"/>
-        <v>83.408223982987835</v>
+        <v>0.83408223982987695</v>
       </c>
       <c r="J230" s="10">
         <f t="shared" si="9"/>
-        <v>1326.9870397681998</v>
+        <v>13.269870397681975</v>
       </c>
       <c r="K230" s="11">
         <f>IF(MAX(J$1:J230)=J230,0,1-J230/MAX(J$1:J230))</f>
@@ -9794,11 +9794,11 @@
       </c>
       <c r="I231" s="9">
         <f t="shared" si="8"/>
-        <v>24.399854764904195</v>
+        <v>0.24399854764904153</v>
       </c>
       <c r="J231" s="10">
         <f t="shared" si="9"/>
-        <v>1351.3868945331039</v>
+        <v>13.513868945331017</v>
       </c>
       <c r="K231" s="11">
         <f>IF(MAX(J$1:J231)=J231,0,1-J231/MAX(J$1:J231))</f>
@@ -9832,11 +9832,11 @@
       </c>
       <c r="I232" s="9">
         <f t="shared" si="8"/>
-        <v>208.04994494923443</v>
+        <v>2.0804994494923412</v>
       </c>
       <c r="J232" s="10">
         <f t="shared" si="9"/>
-        <v>1559.4368394823384</v>
+        <v>15.594368394823359</v>
       </c>
       <c r="K232" s="11">
         <f>IF(MAX(J$1:J232)=J232,0,1-J232/MAX(J$1:J232))</f>
@@ -9870,11 +9870,11 @@
       </c>
       <c r="I233" s="9">
         <f t="shared" si="8"/>
-        <v>135.46459797488956</v>
+        <v>1.3546459797488934</v>
       </c>
       <c r="J233" s="10">
         <f t="shared" si="9"/>
-        <v>1694.901437457228</v>
+        <v>16.949014374572254</v>
       </c>
       <c r="K233" s="11">
         <f>IF(MAX(J$1:J233)=J233,0,1-J233/MAX(J$1:J233))</f>
@@ -9908,11 +9908,11 @@
       </c>
       <c r="I234" s="9">
         <f t="shared" si="8"/>
-        <v>24.932644207542058</v>
+        <v>0.24932644207542021</v>
       </c>
       <c r="J234" s="10">
         <f t="shared" si="9"/>
-        <v>1719.8340816647701</v>
+        <v>17.198340816647676</v>
       </c>
       <c r="K234" s="11">
         <f>IF(MAX(J$1:J234)=J234,0,1-J234/MAX(J$1:J234))</f>
@@ -9946,11 +9946,11 @@
       </c>
       <c r="I235" s="9">
         <f t="shared" si="8"/>
-        <v>109.72670428577359</v>
+        <v>1.0972670428577342</v>
       </c>
       <c r="J235" s="10">
         <f t="shared" si="9"/>
-        <v>1829.5607859505437</v>
+        <v>18.295607859505409</v>
       </c>
       <c r="K235" s="11">
         <f>IF(MAX(J$1:J235)=J235,0,1-J235/MAX(J$1:J235))</f>
@@ -9984,11 +9984,11 @@
       </c>
       <c r="I236" s="9">
         <f t="shared" si="8"/>
-        <v>-105.76063364230512</v>
+        <v>-1.0576063364230497</v>
       </c>
       <c r="J236" s="10">
         <f t="shared" si="9"/>
-        <v>1723.8001523082387</v>
+        <v>17.23800152308236</v>
       </c>
       <c r="K236" s="11">
         <f>IF(MAX(J$1:J236)=J236,0,1-J236/MAX(J$1:J236))</f>
@@ -10022,15 +10022,15 @@
       </c>
       <c r="I237" s="9">
         <f t="shared" si="8"/>
-        <v>5.5190219956391955</v>
+        <v>5.5190219956391867E-2</v>
       </c>
       <c r="J237" s="10">
         <f t="shared" si="9"/>
-        <v>1729.3191743038778</v>
+        <v>17.293191743038751</v>
       </c>
       <c r="K237" s="11">
         <f>IF(MAX(J$1:J237)=J237,0,1-J237/MAX(J$1:J237))</f>
-        <v>5.4789986982906158E-2</v>
+        <v>5.4789986982906269E-2</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -10060,11 +10060,11 @@
       </c>
       <c r="I238" s="9">
         <f t="shared" si="8"/>
-        <v>106.95448266936091</v>
+        <v>1.0695448266936074</v>
       </c>
       <c r="J238" s="10">
         <f t="shared" si="9"/>
-        <v>1836.2736569732388</v>
+        <v>18.362736569732359</v>
       </c>
       <c r="K238" s="11">
         <f>IF(MAX(J$1:J238)=J238,0,1-J238/MAX(J$1:J238))</f>
@@ -10098,11 +10098,11 @@
       </c>
       <c r="I239" s="9">
         <f t="shared" si="8"/>
-        <v>51.766574291098273</v>
+        <v>0.51766574291098189</v>
       </c>
       <c r="J239" s="10">
         <f t="shared" si="9"/>
-        <v>1888.0402312643371</v>
+        <v>18.880402312643341</v>
       </c>
       <c r="K239" s="11">
         <f>IF(MAX(J$1:J239)=J239,0,1-J239/MAX(J$1:J239))</f>
@@ -10136,11 +10136,11 @@
       </c>
       <c r="I240" s="9">
         <f t="shared" si="8"/>
-        <v>71.653788913207677</v>
+        <v>0.71653788913207561</v>
       </c>
       <c r="J240" s="10">
         <f t="shared" si="9"/>
-        <v>1959.6940201775446</v>
+        <v>19.596940201775418</v>
       </c>
       <c r="K240" s="11">
         <f>IF(MAX(J$1:J240)=J240,0,1-J240/MAX(J$1:J240))</f>
@@ -10174,11 +10174,11 @@
       </c>
       <c r="I241" s="9">
         <f t="shared" si="8"/>
-        <v>2.5581453800593632</v>
+        <v>2.5581453800593595E-2</v>
       </c>
       <c r="J241" s="10">
         <f t="shared" si="9"/>
-        <v>1962.252165557604</v>
+        <v>19.622521655576012</v>
       </c>
       <c r="K241" s="11">
         <f>IF(MAX(J$1:J241)=J241,0,1-J241/MAX(J$1:J241))</f>
@@ -10212,11 +10212,11 @@
       </c>
       <c r="I242" s="9">
         <f t="shared" si="8"/>
-        <v>168.65628004045567</v>
+        <v>1.6865628004045543</v>
       </c>
       <c r="J242" s="10">
         <f t="shared" si="9"/>
-        <v>2130.9084455980596</v>
+        <v>21.309084455980567</v>
       </c>
       <c r="K242" s="11">
         <f>IF(MAX(J$1:J242)=J242,0,1-J242/MAX(J$1:J242))</f>
@@ -10250,11 +10250,11 @@
       </c>
       <c r="I243" s="9">
         <f t="shared" si="8"/>
-        <v>-98.180647722130075</v>
+        <v>-0.98180647722129943</v>
       </c>
       <c r="J243" s="10">
         <f t="shared" si="9"/>
-        <v>2032.7277978759296</v>
+        <v>20.32727797875927</v>
       </c>
       <c r="K243" s="11">
         <f>IF(MAX(J$1:J243)=J243,0,1-J243/MAX(J$1:J243))</f>
@@ -10288,11 +10288,11 @@
       </c>
       <c r="I244" s="9">
         <f t="shared" si="8"/>
-        <v>-56.768517720508534</v>
+        <v>-0.5676851772050846</v>
       </c>
       <c r="J244" s="10">
         <f t="shared" si="9"/>
-        <v>1975.9592801554211</v>
+        <v>19.759592801554184</v>
       </c>
       <c r="K244" s="11">
         <f>IF(MAX(J$1:J244)=J244,0,1-J244/MAX(J$1:J244))</f>
@@ -10326,15 +10326,15 @@
       </c>
       <c r="I245" s="9">
         <f t="shared" si="8"/>
-        <v>82.990052651414075</v>
+        <v>0.82990052651413959</v>
       </c>
       <c r="J245" s="10">
         <f t="shared" si="9"/>
-        <v>2058.9493328068352</v>
+        <v>20.589493328068325</v>
       </c>
       <c r="K245" s="11">
         <f>IF(MAX(J$1:J245)=J245,0,1-J245/MAX(J$1:J245))</f>
-        <v>3.3769218447594285E-2</v>
+        <v>3.3769218447594174E-2</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -10364,11 +10364,11 @@
       </c>
       <c r="I246" s="9">
         <f>IF(P$1,H246*J245*P$3,H246*P$2*P$3)</f>
-        <v>-78.181806380541303</v>
+        <v>-0.78181806380541197</v>
       </c>
       <c r="J246" s="10">
         <f t="shared" si="9"/>
-        <v>1980.7675264262939</v>
+        <v>19.807675264262912</v>
       </c>
       <c r="K246" s="11">
         <f>IF(MAX(J$1:J246)=J246,0,1-J246/MAX(J$1:J246))</f>

--- a/files/BTCUSDT_2020.xlsx
+++ b/files/BTCUSDT_2020.xlsx
@@ -78,12 +78,6 @@
     <t>1 - прибыль реинвестируется; 0 - размер ставки постоянный</t>
   </si>
   <si>
-    <t>bett(every/first)</t>
-  </si>
-  <si>
-    <t>Размер ставки</t>
-  </si>
-  <si>
     <t>сумма</t>
   </si>
   <si>
@@ -161,16 +155,23 @@
   <si>
     <t>Чистая прибыль (в %)</t>
   </si>
+  <si>
+    <t>lot(first/every)</t>
+  </si>
+  <si>
+    <t>Размер лота (при реинвестировании прибыли - 1-го лота)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00000\ _₽_-;\-* #,##0.00000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _₽_-;\-* #,##0.000\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -309,7 +310,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -351,6 +352,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,6 +538,1588 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Сделки!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>equity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Сделки!$J$2:$J$246</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="245"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96162636000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93063995073182881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89281679809659031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95014215409701752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97766385771553321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9622723880604932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93416444047341785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89588410990703204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4890469633372307</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5659098998520997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4974808116609879</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4798442014520343</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3610860827509439</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.592641029520139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5787623892814637</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5141776354424146</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.432903424054778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3829556490539667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3238495628872753</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4480438486919236</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.450099622063473</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4059514695787165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.448143876347568</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5348146212007869</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4426995906875946</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4219440199022166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3879241656398984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2482920133179713</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2196751061564588</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3234928022719052</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3984449392946638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5206668454149121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5770040392971216</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6191945114826995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5868532384525877</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6457244621445737</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5955013291869906</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6635104030042773</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8321319353835575</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8965024985129879</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8522687018179709</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.884625002067617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8380770449127992</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8593846773443941</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7828545795049713</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7473913911789387</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6797056090024634</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7069532558859064</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7179469736781023</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7092994298940476</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6263267024331023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6144831245920364</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5948059011384961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8525176676416666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7765313017272841</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7311626184153461</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6946091024158798</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0418210523046203</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9041233765774068</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8522885683708661</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1995007273358693</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1056872703934233</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0029361328875264</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.2862176994106278</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.2582418935638957</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1732028495120002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1293883635622763</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0654070998677607</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1442345804244027</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1241279426673425</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0363924098501456</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9632845783175348</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0223054479291358</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2587689726529594</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.3175981362042215</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.4592784493299309</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.3836245271406513</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2892275135294691</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.7138308459118248</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0157556270876751</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.0720927770119624</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3689271673122003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.395013275707774</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2596933767089049</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4297698670516517</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.427720510960691</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.6399189992673251</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5557049961189064</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5257598086819422</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.468393334335615</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.2959047924933702</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.196449514058918</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.207039575050461</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.0444802871696179</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1729792146566376</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.125944620727759</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.0331385446613113</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.9218492033483612</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8635577565902128</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.0019368370600743</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.8833286315432018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.8637555587939794</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.2347048325256824</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.1478155175433589</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.3151684055359825</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.3497210134561537</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.2339372031846287</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.0739354758891908</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.8982504112847294</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.7028253566548637</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.7135788176188509</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.8004157277320134</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6794678727630634</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5760219781354445</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.696045797356116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.863173352808726</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.891546999890791</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.8769054492485542</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.9821348253992443</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2524468580857686</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1788895849922381</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.0545633404787749</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.2392473717105337</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.0823027592661552</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.3185499845358071</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.3892134954460205</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.2842573825752317</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.1645036370046862</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.0502758150211826</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.9490075120397075</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.2501126801482587</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.411388601522011</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.6181464171358031</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.1072150312123235</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.0930563520516765</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.1221202856657619</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.9558100450443483</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.8809010459168682</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.913673275990103</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.0032374540907396</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.7778557859110489</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.8753441855947566</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.7915520361620128</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.794901872385962</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.0720452638321518</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.0028080338884982</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.8578617117240763</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.9658964995268549</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.0278808046638046</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.866230750464009</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.7632616201984384</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.7194317776581598</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.8151277360644045</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.5618450619541502</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.7290347218813933</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.6223235804786675</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.4944918351634557</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.6316946480764702</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.0246572559441463</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.0812101250858053</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.9304443707860557</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.8997500372690581</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.866075819172921</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.8744026396883289</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.3321868482116503</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.2314400457661536</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.3049164508913931</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.0460262413548129</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.1222570190765735</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.9934896407593099</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.6474037979956035</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.3857580625382555</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.1562115225783307</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.7682269952508083</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.483215602835398</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.4720843754704216</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.5600271967971544</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8.4540289141209506</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8.2506773088861785</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.9402341892046495</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.5754566544589119</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.6807848947277098</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.5946712372255272</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.6260247741744394</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.4051037171224614</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.5615891834341022</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.7321141350566407</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.490266130936968</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.4282283762207895</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.4312449054820888</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.3313636234560775</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.991361298195593</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.9403733701614652</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9.1413393445776538</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8.4777496848483835</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8.1443504791971559</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.9746152925127802</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.8209073738649488</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.4937082171454694</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>7.4797822844801374</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>7.4915647367259419</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>7.6265735211349641</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>7.419430293168003</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7.3910621756363781</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8.0419944996571093</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>7.8634844980894858</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>8.496465354849132</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.2704492520206969</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.9195094427485149</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>8.6524221356782487</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>8.8955747521648334</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.129824629559264</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9.7144691004137815</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9.7214777984356573</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.972468184193422</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.537588452472193</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.375434566103166</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.73149333431672</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10.850072794268121</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10.642097947943222</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10.805591115244741</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>12.667456812662145</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>12.242149483668376</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12.128498876829266</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>12.990223021633513</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>12.434047142571195</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>12.435788157852098</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>13.269870397681975</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>13.513868945331017</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15.594368394823359</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>16.949014374572254</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>17.198340816647676</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>18.295607859505409</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>17.23800152308236</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>17.293191743038751</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>18.362736569732359</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>18.880402312643341</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>19.596940201775418</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>19.622521655576012</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>21.309084455980567</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>20.32727797875927</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>19.759592801554184</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>20.589493328068325</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>19.807675264262912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC13-45FA-B66F-823EE83069BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="268581487"/>
+        <c:axId val="268580655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="268581487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268580655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268580655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268581487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q246"/>
+  <dimension ref="A1:R246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="Q13" sqref="Q13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,9 +2423,10 @@
     <col min="13" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -892,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -932,22 +2517,22 @@
       <c r="L2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="28">
         <f>SUM(I:I)</f>
         <v>18.965312494262918</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="29"/>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="P2" s="24">
         <v>1</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -985,7 +2570,7 @@
         <v>3.8373639999999987E-2</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="13">
         <f>SUMIF(I:I,M1)</f>
@@ -996,16 +2581,16 @@
         <v>-19.139445433310954</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P3" s="25">
         <v>1</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1043,7 +2628,7 @@
         <v>6.9360049268171187E-2</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" s="14">
         <f>COUNTIF(I:I,M1)</f>
@@ -1054,10 +2639,10 @@
         <v>130</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +2680,7 @@
         <v>0.10718320190340969</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5" s="13">
         <f>AVERAGEIF(I:I,M1)</f>
@@ -1106,7 +2691,7 @@
         <v>-0.14722650333316117</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +2730,7 @@
       </c>
       <c r="N6" s="16"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1183,17 +2768,17 @@
         <v>2.2336142284466787E-2</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" s="17">
         <f>M3/M4</f>
         <v>0.3313457211093378</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1231,17 +2816,17 @@
         <v>3.77276119395068E-2</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="17">
         <f>N3/N4</f>
         <v>-0.14722650333316117</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1286,10 +2871,10 @@
         <v>0.88461538461538458</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1327,17 +2912,17 @@
         <v>0.10411589009296796</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="17">
+        <v>29</v>
+      </c>
+      <c r="M10" s="27">
         <f>M5/N5*-1</f>
         <v>2.2505847358170992</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1375,17 +2960,17 @@
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="17">
         <f>M4/(M4+N4)</f>
         <v>0.46938775510204084</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1423,17 +3008,17 @@
         <v>0</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M12" s="17">
         <f>N4/(M4+N4)</f>
         <v>0.53061224489795922</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1471,17 +3056,18 @@
         <v>4.3699249999999967E-2</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="3">
         <f>(M7*M11)+(M8*M12)</f>
         <v>7.7409438752093454E-2</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1519,17 +3105,17 @@
         <v>5.4962101209140024E-2</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" s="19">
         <f>1+M9*M10</f>
         <v>2.9909018816843567</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1567,17 +3153,17 @@
         <v>0.13080178950302401</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M15" s="21">
         <f>MAX(K:K)</f>
         <v>0.29228590563307344</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1615,14 +3201,14 @@
         <v>0</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M16" s="10">
         <f>M17/M15</f>
         <v>64.886168401398649</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1670,7 +3256,7 @@
         <v>18.965312494262918</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -10446,5 +12032,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>